--- a/Codici.xlsx
+++ b/Codici.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIEFFE2\My Drive 3\GIT\ARDUINO\PROGETTI\ARI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B9417A-D589-4134-A982-BB3BFECBCF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3ECA7C-252C-4BC6-AE1B-00EC682927C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="1155" windowWidth="25245" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>DIEFFE2</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{98057C2C-D80D-4DC2-BD44-50717E61DCAB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DIEFFE2:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Sostituire - con ,</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="913">
   <si>
@@ -2677,12 +2711,6 @@
     <t>_</t>
   </si>
   <si>
-    <t>_900,800,900,800,850,800,900,800,900,800,850,800,1750,750,950,750,900,1650,850,800,1700,800,900</t>
-  </si>
-  <si>
-    <t>_900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,750</t>
-  </si>
-  <si>
     <t>LenData</t>
   </si>
   <si>
@@ -2728,50 +2756,56 @@
     <t>10P</t>
   </si>
   <si>
-    <t>_900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,751</t>
-  </si>
-  <si>
-    <t>_900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,752</t>
-  </si>
-  <si>
-    <t>_900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,753</t>
-  </si>
-  <si>
-    <t>_900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,754</t>
-  </si>
-  <si>
-    <t>_900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,755</t>
-  </si>
-  <si>
-    <t>_900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,756</t>
-  </si>
-  <si>
-    <t>_900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,757</t>
-  </si>
-  <si>
-    <t>_900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,758</t>
-  </si>
-  <si>
-    <t>_900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,759</t>
-  </si>
-  <si>
-    <t>_900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,760</t>
-  </si>
-  <si>
-    <t>_900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,761</t>
-  </si>
-  <si>
-    <t>_900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,762</t>
-  </si>
-  <si>
-    <t>_900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,763</t>
+    <t>_8950,4450,550,550,600,550,550,550,550,550,600,550,550,550,550,550,600,550,550,1650,600,1650,550,1650,600,1650,600,1650,550,1700,550,500,600,1700,550,1650,600,550,550,550,550,1650,600,1650,550,550,600,1650,550,550,600,500,600,1650,600,1650,550,550,600,550,550,1650,600,550,550,1650,600</t>
+  </si>
+  <si>
+    <t>_8950,4450,550,550,550,550,600,550,550,550,550,600,550,550,550,550,550,600,550,1650,550,1700,550,1700,550,1650,550,1700,550,1650,600,550,550,1700,550,1650,550,600,550,1650,550,600,550,550,550,550,550,600,550,550,550,550,550,1700,550,550,550,1700,550,1700,550,1650,550,1700,550,1650,550</t>
+  </si>
+  <si>
+    <t>_8900,4500,550,550,550,600,550,550,550,550,550,600,550,550,550,550,550,600,500,1700,550,1700,550,1700,500,1700,550,1650,600,1700,500,600,550,1650,550,600,550,1650,550,1700,550,550,550,600,550,550,550,550,550,550,600,1650,550,550,600,550,550,1650,600,1650,550,1700,550,1700,500,1700,550</t>
+  </si>
+  <si>
+    <t>_9050,4350,650,500,650,450,700,400,650,450,700,450,650,450,650,500,650,450,650,1600,650,1550,700,1550,700,1500,700,1550,650,1600,650,450,650,1600,650,450,650,1600,650,450,650,1600,650,1600,650,450,650,1600,650,450,650,1600,650,450,650,1600,650,450,650,450,650,1550,700,450,650,1550,700</t>
+  </si>
+  <si>
+    <t>_8900,4500,550,550,550,600,500,600,550,550,550,600,500,600,550,550,550,550,550,1700,550,1700,550,1700,500,1700,550,1700,550,1700,500,600,550,1700,500,1700,550,1700,550,550,550,1700,550,1700,500,600,550,550,550,600,500,600,550,550,550,1700,550,550,550,600,500,1700,550,1700,550,1650,550</t>
+  </si>
+  <si>
+    <t>_9050,4350,650,500,600,500,650,450,650,500,650,450,650,450,650,500,650,450,600,1650,600,1600,650,1600,650,1550,700,1550,650,1550,700,450,650,1600,600,500,650,1600,600,1650,600,500,650,1600,600,500,650,450,650,500,600,1600,650,450,650,500,600,1600,650,450,650,1600,650,1600,650,1550,650</t>
+  </si>
+  <si>
+    <t>_8950,4450,600,550,550,550,550,550,600,500,600,550,550,550,600,500,600,550,650,1600,550,1650,600,1650,550,1700,550,1650,650,1600,550,550,600,1650,550,550,600,1650,550,550,650,1600,550,1700,550,550,550,550,600,550,550,1650,600,500,600,1650,600,500,650,500,550,1700,550,1650,600,1650,550</t>
+  </si>
+  <si>
+    <t>_8950,4450,550,550,600,500,600,550,550,550,600,500,600,550,550,550,600,550,550,1650,600,1650,550,1650,600,1650,600,1650,550,1700,550,550,550,1700,550,1650,600,1600,600,1700,550,550,550,1700,550,550,550,550,600,500,600,550,550,550,600,500,600,1650,600,500,600,1650,600,1650,550,1650,600</t>
+  </si>
+  <si>
+    <t>_9000,4400,650,500,600,450,650,500,650,450,650,500,550,550,600,500,650,450,650,1600,650,1600,600,1650,600,1600,650,1600,600,1650,550,550,600,1650,600,1600,650,1600,550,550,550,550,650,1600,650,450,650,500,600,500,550,600,500,600,600,1650,600,1600,650,500,600,1600,650,1600,600,1600,650</t>
+  </si>
+  <si>
+    <t>_9000,4400,650,500,600,500,600,500,650,450,650,500,600,500,650,450,650,500,600,1600,650,1600,600,1600,650,1600,650,1600,600,1650,600,500,600,1650,600,1600,650,450,650,1600,650,1600,600,500,650,500,600,1600,650,450,650,500,600,1650,600,500,600,500,650,1600,600,1600,650,500,600,1650,600</t>
+  </si>
+  <si>
+    <t>_9000,4400,650,500,600,500,600,500,650,450,650,500,550,550,650,450,650,500,550,1700,600,1600,650,1600,600,1650,600,1600,650,1600,600,500,650,1600,600,500,650,500,600,500,600,1600,650,1600,650,500,600,500,600,500,650,1600,600,1650,600,1600,550,600,600,500,600,1650,600,1600,550,1650,650</t>
+  </si>
+  <si>
+    <t>_8950,4450,550,600,550,550,550,600,500,600,550,550,550,600,500,550,600,550,550,1700,550,1700,500,1700,550,1700,550,1700,500,1700,550,550,550,1700,550,1700,550,550,550,600,500,600,550,550,600,500,550,550,600,550,550,550,550,1700,550,1700,550,1650,550,1700,550,1700,500,1700,550,1700,550</t>
+  </si>
+  <si>
+    <t>_9050,4350,650,450,650,500,650,450,650,450,650,500,650,450,650,450,650,500,650,1550,650,1600,650,1600,600,1600,650,1600,650,1550,700,450,650,1600,650,450,650,1600,650,450,650,450,650,500,650,450,650,450,650,500,650,1550,650,500,650,1550,650,1600,650,1550,700,1550,650,1600,650,1550,650</t>
+  </si>
+  <si>
+    <t>_9050,4400,600,500,650,450,650,450,700,450,650,450,650,450,650,500,650,450,650,1600,650,1550,650,1600,650,1600,650,1600,600,1600,650,450,700,1550,650,1600,650,450,650,1600,650,1600,600,500,600,500,650,500,600,500,650,450,650,1600,650,450,650,500,650,1550,650,1600,650,1600,650,1550,650</t>
+  </si>
+  <si>
+    <t>_9050,4350,650,500,650,450,650,450,650,500,650,450,650,450,650,500,650,450,650,1550,700,1550,650,1600,650,1550,700,1550,650,1600,650,450,650,1600,650,1600,650,450,650,450,650,500,650,1550,650,500,650,400,700,450,650,500,650,1550,650,1600,650,1550,700,400,700,1550,650,1600,650,1550,700</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2837,6 +2871,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2913,7 +2960,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3008,6 +3055,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3415,6 +3465,18 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8D0A749-F962-4F1B-B21E-FE4D8D038816}" name="Table1" displayName="Table1" ref="A1:R189" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowCellStyle="Accent1">
+  <autoFilter ref="A1:R189" xr:uid="{D8D0A749-F962-4F1B-B21E-FE4D8D038816}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Xoro"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6FA10E92-0C7B-4C4C-9DB7-EA4230F093AD}" name="App" dataDxfId="17"/>
     <tableColumn id="16" xr3:uid="{2810BB17-5B56-45E3-8ACD-D32FB6C47E02}" name="sel" dataDxfId="16"/>
@@ -3434,7 +3496,7 @@
     <tableColumn id="17" xr3:uid="{E3F2DCDA-9DCB-4CFA-8B5D-1C70E3FC1873}" name="dataRaw" dataDxfId="2"/>
     <tableColumn id="12" xr3:uid="{A85C1B67-7827-4A67-BCBC-E1DCD4E45311}" name="Note" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{84C7D1C6-6030-4CD3-B720-CC74B0412AE0}" name="codice ARDUINO" dataDxfId="0">
-      <calculatedColumnFormula>"case "&amp;G2&amp;": Serial.println(F('"&amp;C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;"')); for (int i = 0; i &lt; "&amp;L2&amp;"; i++) data"&amp;L2&amp;"[i] = pgm_read_word_near(dataRow"&amp;G2&amp;" + i); txIr(1, "&amp;L2&amp;"); waitTx(); break;"</calculatedColumnFormula>
+      <calculatedColumnFormula>"case "&amp;G2&amp;": Serial.println(F('"&amp;C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;"')); for (int i = 0; i &lt; "&amp;L2&amp;"; i++) data"&amp;L2&amp;"[i] = pgm_read_word_near(dataRow"&amp;G2&amp;" + i); txIr(1, "&amp;L2&amp;"); waitTx();"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3735,7 +3797,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>685</v>
@@ -3750,10 +3812,10 @@
         <v>659</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
@@ -3765,33 +3827,33 @@
         <v>5</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>280</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>55</v>
@@ -3839,11 +3901,11 @@
         <v>281</v>
       </c>
       <c r="R2" s="4" t="str">
-        <f t="shared" ref="R2:R33" si="0">"case "&amp;G2&amp;": Serial.println(F('"&amp;C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;"')); for (int i = 0; i &lt; "&amp;L2&amp;"; i++) data"&amp;L2&amp;"[i] = pgm_read_word_near(dataRow"&amp;G2&amp;" + i); txIr(1, "&amp;L2&amp;"); waitTx(); break;"</f>
-        <v>case 1: Serial.println(F('BD_PRIMARE_ON-OFF')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow1 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R2:R33" si="0">"case "&amp;G2&amp;": Serial.println(F('"&amp;C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;"')); for (int i = 0; i &lt; "&amp;L2&amp;"; i++) data"&amp;L2&amp;"[i] = pgm_read_word_near(dataRow"&amp;G2&amp;" + i); txIr(1, "&amp;L2&amp;"); waitTx();"</f>
+        <v>case 1: Serial.println(F('BD_PRIMARE_ON-OFF')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow1 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>97</v>
       </c>
@@ -3892,10 +3954,10 @@
       </c>
       <c r="R3" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 2: Serial.println(F('BD_PRIMARE_DIM')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow2 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 2: Serial.println(F('BD_PRIMARE_DIM')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow2 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>97</v>
       </c>
@@ -3926,15 +3988,15 @@
       </c>
       <c r="R4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 3: Serial.println(F('BD_PRIMARE_MUTE')); for (int i = 0; i &lt; ; i++) data[i] = pgm_read_word_near(dataRow3 + i); txIr(1, ); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 3: Serial.println(F('BD_PRIMARE_MUTE')); for (int i = 0; i &lt; ; i++) data[i] = pgm_read_word_near(dataRow3 + i); txIr(1, ); waitTx();</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>55</v>
@@ -3981,15 +4043,15 @@
       </c>
       <c r="R5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 4: Serial.println(F('BD_PRIMARE_1')); for (int i = 0; i &lt; 25; i++) data25[i] = pgm_read_word_near(dataRow4 + i); txIr(1, 25); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 4: Serial.println(F('BD_PRIMARE_1')); for (int i = 0; i &lt; 25; i++) data25[i] = pgm_read_word_near(dataRow4 + i); txIr(1, 25); waitTx();</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>55</v>
@@ -4036,15 +4098,15 @@
       </c>
       <c r="R6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 5: Serial.println(F('BD_PRIMARE_2')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow5 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 5: Serial.println(F('BD_PRIMARE_2')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow5 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>55</v>
@@ -4091,15 +4153,15 @@
       </c>
       <c r="R7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 6: Serial.println(F('BD_PRIMARE_3')); for (int i = 0; i &lt; 25; i++) data25[i] = pgm_read_word_near(dataRow6 + i); txIr(1, 25); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 6: Serial.println(F('BD_PRIMARE_3')); for (int i = 0; i &lt; 25; i++) data25[i] = pgm_read_word_near(dataRow6 + i); txIr(1, 25); waitTx();</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>55</v>
@@ -4146,15 +4208,15 @@
       </c>
       <c r="R8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 7: Serial.println(F('BD_PRIMARE_4')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow7 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 7: Serial.println(F('BD_PRIMARE_4')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow7 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>55</v>
@@ -4201,15 +4263,15 @@
       </c>
       <c r="R9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 8: Serial.println(F('BD_PRIMARE_5')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow8 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 8: Serial.println(F('BD_PRIMARE_5')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow8 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>55</v>
@@ -4256,15 +4318,15 @@
       </c>
       <c r="R10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 9: Serial.println(F('BD_PRIMARE_6')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow9 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 9: Serial.println(F('BD_PRIMARE_6')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow9 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>55</v>
@@ -4311,15 +4373,15 @@
       </c>
       <c r="R11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 10: Serial.println(F('BD_PRIMARE_7')); for (int i = 0; i &lt; 25; i++) data25[i] = pgm_read_word_near(dataRow10 + i); txIr(1, 25); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 10: Serial.println(F('BD_PRIMARE_7')); for (int i = 0; i &lt; 25; i++) data25[i] = pgm_read_word_near(dataRow10 + i); txIr(1, 25); waitTx();</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>55</v>
@@ -4366,15 +4428,15 @@
       </c>
       <c r="R12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 11: Serial.println(F('BD_PRIMARE_8')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow11 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 11: Serial.println(F('BD_PRIMARE_8')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow11 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>55</v>
@@ -4421,15 +4483,15 @@
       </c>
       <c r="R13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 12: Serial.println(F('BD_PRIMARE_9')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow12 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 12: Serial.println(F('BD_PRIMARE_9')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow12 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>55</v>
@@ -4474,15 +4536,15 @@
       </c>
       <c r="R14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 13: Serial.println(F('BD_PRIMARE_0')); for (int i = 0; i &lt; 25; i++) data25[i] = pgm_read_word_near(dataRow13 + i); txIr(1, 25); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 13: Serial.println(F('BD_PRIMARE_0')); for (int i = 0; i &lt; 25; i++) data25[i] = pgm_read_word_near(dataRow13 + i); txIr(1, 25); waitTx();</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>55</v>
@@ -4529,15 +4591,15 @@
       </c>
       <c r="R15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 14: Serial.println(F('BD_PRIMARE_C')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow14 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 14: Serial.println(F('BD_PRIMARE_C')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow14 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>55</v>
@@ -4546,7 +4608,7 @@
         <v>687</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F16" s="8">
         <v>10</v>
@@ -4584,10 +4646,10 @@
       </c>
       <c r="R16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 15: Serial.println(F('BD_PRIMARE_10P')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow15 + i); txIr(1, 21); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 15: Serial.println(F('BD_PRIMARE_10P')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow15 + i); txIr(1, 21); waitTx();</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>97</v>
       </c>
@@ -4618,10 +4680,10 @@
       </c>
       <c r="R17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 16: Serial.println(F('BD_PRIMARE_AMP')); for (int i = 0; i &lt; ; i++) data[i] = pgm_read_word_near(dataRow16 + i); txIr(1, ); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 16: Serial.println(F('BD_PRIMARE_AMP')); for (int i = 0; i &lt; ; i++) data[i] = pgm_read_word_near(dataRow16 + i); txIr(1, ); waitTx();</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>97</v>
       </c>
@@ -4670,10 +4732,10 @@
       </c>
       <c r="R18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 17: Serial.println(F('BD_PRIMARE_MEDIA')); for (int i = 0; i &lt; 19; i++) data19[i] = pgm_read_word_near(dataRow17 + i); txIr(1, 19); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 17: Serial.println(F('BD_PRIMARE_MEDIA')); for (int i = 0; i &lt; 19; i++) data19[i] = pgm_read_word_near(dataRow17 + i); txIr(1, 19); waitTx();</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>97</v>
       </c>
@@ -4722,10 +4784,10 @@
       </c>
       <c r="R19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 18: Serial.println(F('BD_PRIMARE_BD')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow18 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 18: Serial.println(F('BD_PRIMARE_BD')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow18 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>97</v>
       </c>
@@ -4756,10 +4818,10 @@
       </c>
       <c r="R20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 19: Serial.println(F('BD_PRIMARE_CD')); for (int i = 0; i &lt; ; i++) data[i] = pgm_read_word_near(dataRow19 + i); txIr(1, ); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 19: Serial.println(F('BD_PRIMARE_CD')); for (int i = 0; i &lt; ; i++) data[i] = pgm_read_word_near(dataRow19 + i); txIr(1, ); waitTx();</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>97</v>
       </c>
@@ -4790,10 +4852,10 @@
       </c>
       <c r="R21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 20: Serial.println(F('BD_PRIMARE_PRE')); for (int i = 0; i &lt; ; i++) data[i] = pgm_read_word_near(dataRow20 + i); txIr(1, ); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 20: Serial.println(F('BD_PRIMARE_PRE')); for (int i = 0; i &lt; ; i++) data[i] = pgm_read_word_near(dataRow20 + i); txIr(1, ); waitTx();</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>97</v>
       </c>
@@ -4824,10 +4886,10 @@
       </c>
       <c r="R22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 21: Serial.println(F('BD_PRIMARE_PROC')); for (int i = 0; i &lt; ; i++) data[i] = pgm_read_word_near(dataRow21 + i); txIr(1, ); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 21: Serial.println(F('BD_PRIMARE_PROC')); for (int i = 0; i &lt; ; i++) data[i] = pgm_read_word_near(dataRow21 + i); txIr(1, ); waitTx();</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>97</v>
       </c>
@@ -4876,10 +4938,10 @@
       </c>
       <c r="R23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 22: Serial.println(F('BD_PRIMARE_-')); for (int i = 0; i &lt; 25; i++) data25[i] = pgm_read_word_near(dataRow22 + i); txIr(1, 25); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 22: Serial.println(F('BD_PRIMARE_-')); for (int i = 0; i &lt; 25; i++) data25[i] = pgm_read_word_near(dataRow22 + i); txIr(1, 25); waitTx();</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>97</v>
       </c>
@@ -4928,15 +4990,15 @@
       </c>
       <c r="R24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 23: Serial.println(F('BD_PRIMARE_+')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow23 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 23: Serial.println(F('BD_PRIMARE_+')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow23 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>55</v>
@@ -4985,15 +5047,15 @@
       </c>
       <c r="R25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 24: Serial.println(F('BD_PRIMARE_UP')); for (int i = 0; i &lt; 25; i++) data25[i] = pgm_read_word_near(dataRow24 + i); txIr(1, 25); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 24: Serial.println(F('BD_PRIMARE_UP')); for (int i = 0; i &lt; 25; i++) data25[i] = pgm_read_word_near(dataRow24 + i); txIr(1, 25); waitTx();</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>55</v>
@@ -5042,15 +5104,15 @@
       </c>
       <c r="R26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 25: Serial.println(F('BD_PRIMARE_LEFT')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow25 + i); txIr(1, 21); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 25: Serial.println(F('BD_PRIMARE_LEFT')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow25 + i); txIr(1, 21); waitTx();</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>55</v>
@@ -5099,15 +5161,15 @@
       </c>
       <c r="R27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 26: Serial.println(F('BD_PRIMARE_RIGTH')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow26 + i); txIr(1, 21); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 26: Serial.println(F('BD_PRIMARE_RIGTH')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow26 + i); txIr(1, 21); waitTx();</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>55</v>
@@ -5156,15 +5218,15 @@
       </c>
       <c r="R28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 27: Serial.println(F('BD_PRIMARE_DOWN')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow27 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 27: Serial.println(F('BD_PRIMARE_DOWN')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow27 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>55</v>
@@ -5213,15 +5275,15 @@
       </c>
       <c r="R29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 28: Serial.println(F('BD_PRIMARE_SELECT')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow28 + i); txIr(1, 21); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 28: Serial.println(F('BD_PRIMARE_SELECT')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow28 + i); txIr(1, 21); waitTx();</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>55</v>
@@ -5270,15 +5332,15 @@
       </c>
       <c r="R30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 29: Serial.println(F('BD_PRIMARE_STOP/EJECT')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow29 + i); txIr(1, 21); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 29: Serial.println(F('BD_PRIMARE_STOP/EJECT')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow29 + i); txIr(1, 21); waitTx();</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>55</v>
@@ -5327,15 +5389,15 @@
       </c>
       <c r="R31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 30: Serial.println(F('BD_PRIMARE_PLAY/PAUSE')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow30 + i); txIr(1, 21); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 30: Serial.println(F('BD_PRIMARE_PLAY/PAUSE')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow30 + i); txIr(1, 21); waitTx();</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>55</v>
@@ -5384,15 +5446,15 @@
       </c>
       <c r="R32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 31: Serial.println(F('BD_PRIMARE_PREV')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow31 + i); txIr(1, 21); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 31: Serial.println(F('BD_PRIMARE_PREV')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow31 + i); txIr(1, 21); waitTx();</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>55</v>
@@ -5441,15 +5503,15 @@
       </c>
       <c r="R33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>case 32: Serial.println(F('BD_PRIMARE_FB')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow32 + i); txIr(1, 21); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 32: Serial.println(F('BD_PRIMARE_FB')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow32 + i); txIr(1, 21); waitTx();</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>55</v>
@@ -5497,16 +5559,16 @@
         <v>281</v>
       </c>
       <c r="R34" s="4" t="str">
-        <f t="shared" ref="R34:R65" si="1">"case "&amp;G34&amp;": Serial.println(F('"&amp;C34&amp;"_"&amp;D34&amp;"_"&amp;E34&amp;"')); for (int i = 0; i &lt; "&amp;L34&amp;"; i++) data"&amp;L34&amp;"[i] = pgm_read_word_near(dataRow"&amp;G34&amp;" + i); txIr(1, "&amp;L34&amp;"); waitTx(); break;"</f>
-        <v>case 33: Serial.println(F('BD_PRIMARE_FF')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow33 + i); txIr(1, 21); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R34:R65" si="1">"case "&amp;G34&amp;": Serial.println(F('"&amp;C34&amp;"_"&amp;D34&amp;"_"&amp;E34&amp;"')); for (int i = 0; i &lt; "&amp;L34&amp;"; i++) data"&amp;L34&amp;"[i] = pgm_read_word_near(dataRow"&amp;G34&amp;" + i); txIr(1, "&amp;L34&amp;"); waitTx();"</f>
+        <v>case 33: Serial.println(F('BD_PRIMARE_FF')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow33 + i); txIr(1, 21); waitTx();</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>55</v>
@@ -5555,15 +5617,15 @@
       </c>
       <c r="R35" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 34: Serial.println(F('BD_PRIMARE_NEXT')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow34 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 34: Serial.println(F('BD_PRIMARE_NEXT')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow34 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>55</v>
@@ -5610,15 +5672,15 @@
       </c>
       <c r="R36" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 35: Serial.println(F('BD_PRIMARE_SETUP')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow35 + i); txIr(1, 21); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 35: Serial.println(F('BD_PRIMARE_SETUP')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow35 + i); txIr(1, 21); waitTx();</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>55</v>
@@ -5665,15 +5727,15 @@
       </c>
       <c r="R37" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 36: Serial.println(F('BD_PRIMARE_DISP')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow36 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 36: Serial.println(F('BD_PRIMARE_DISP')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow36 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>55</v>
@@ -5720,15 +5782,15 @@
       </c>
       <c r="R38" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 37: Serial.println(F('BD_PRIMARE_MENU')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow37 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 37: Serial.println(F('BD_PRIMARE_MENU')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow37 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>55</v>
@@ -5775,15 +5837,15 @@
       </c>
       <c r="R39" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 38: Serial.println(F('BD_PRIMARE_POP')); for (int i = 0; i &lt; 25; i++) data25[i] = pgm_read_word_near(dataRow38 + i); txIr(1, 25); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 38: Serial.println(F('BD_PRIMARE_POP')); for (int i = 0; i &lt; 25; i++) data25[i] = pgm_read_word_near(dataRow38 + i); txIr(1, 25); waitTx();</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>55</v>
@@ -5830,15 +5892,15 @@
       </c>
       <c r="R40" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 39: Serial.println(F('BD_PRIMARE_REPEAT')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow39 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 39: Serial.println(F('BD_PRIMARE_REPEAT')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow39 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>55</v>
@@ -5885,15 +5947,15 @@
       </c>
       <c r="R41" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 40: Serial.println(F('BD_PRIMARE_ANG')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow40 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 40: Serial.println(F('BD_PRIMARE_ANG')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow40 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>55</v>
@@ -5942,15 +6004,15 @@
       </c>
       <c r="R42" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 41: Serial.println(F('BD_PRIMARE_HOME')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow41 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 41: Serial.println(F('BD_PRIMARE_HOME')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow41 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>55</v>
@@ -5997,15 +6059,15 @@
       </c>
       <c r="R43" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 42: Serial.println(F('BD_PRIMARE_AUDIO')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow42 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 42: Serial.println(F('BD_PRIMARE_AUDIO')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow42 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>55</v>
@@ -6052,15 +6114,15 @@
       </c>
       <c r="R44" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 43: Serial.println(F('BD_PRIMARE_RES')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow43 + i); txIr(1, 21); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 43: Serial.println(F('BD_PRIMARE_RES')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow43 + i); txIr(1, 21); waitTx();</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>55</v>
@@ -6107,15 +6169,15 @@
       </c>
       <c r="R45" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 44: Serial.println(F('BD_PRIMARE_ZOOM')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow44 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 44: Serial.println(F('BD_PRIMARE_ZOOM')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow44 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>55</v>
@@ -6162,15 +6224,15 @@
       </c>
       <c r="R46" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 45: Serial.println(F('BD_PRIMARE_GOTO')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow45 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 45: Serial.println(F('BD_PRIMARE_GOTO')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow45 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>55</v>
@@ -6217,15 +6279,15 @@
       </c>
       <c r="R47" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 46: Serial.println(F('BD_PRIMARE_BAL/ST')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow46 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 46: Serial.println(F('BD_PRIMARE_BAL/ST')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow46 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>55</v>
@@ -6272,15 +6334,15 @@
       </c>
       <c r="R48" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 47: Serial.println(F('BD_PRIMARE_ROSSO')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow47 + i); txIr(1, 21); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 47: Serial.println(F('BD_PRIMARE_ROSSO')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow47 + i); txIr(1, 21); waitTx();</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>55</v>
@@ -6298,7 +6360,7 @@
         <v>48</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>3</v>
@@ -6329,15 +6391,15 @@
       </c>
       <c r="R49" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 48: Serial.println(F('BD_PRIMARE_VERDE')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow48 + i); txIr(1, 21); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 48: Serial.println(F('BD_PRIMARE_VERDE')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow48 + i); txIr(1, 21); waitTx();</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>55</v>
@@ -6386,15 +6448,15 @@
       </c>
       <c r="R50" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 49: Serial.println(F('BD_PRIMARE_BLU')); for (int i = 0; i &lt; 19; i++) data19[i] = pgm_read_word_near(dataRow49 + i); txIr(1, 19); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 49: Serial.println(F('BD_PRIMARE_BLU')); for (int i = 0; i &lt; 19; i++) data19[i] = pgm_read_word_near(dataRow49 + i); txIr(1, 19); waitTx();</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>55</v>
@@ -6441,15 +6503,15 @@
       </c>
       <c r="R51" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 50: Serial.println(F('BD_PRIMARE_GIALLO')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow50 + i); txIr(1, 21); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 50: Serial.println(F('BD_PRIMARE_GIALLO')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow50 + i); txIr(1, 21); waitTx();</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>434</v>
@@ -6496,15 +6558,15 @@
       </c>
       <c r="R52" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 51: Serial.println(F('AV_ROTEL_ON-OFF')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow51 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 51: Serial.println(F('AV_ROTEL_ON-OFF')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow51 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>434</v>
@@ -6549,15 +6611,15 @@
       </c>
       <c r="R53" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 52: Serial.println(F('AV_ROTEL_LINE')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow52 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 52: Serial.println(F('AV_ROTEL_LINE')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow52 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>434</v>
@@ -6602,15 +6664,15 @@
       </c>
       <c r="R54" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 53: Serial.println(F('AV_ROTEL_LD')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow53 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 53: Serial.println(F('AV_ROTEL_LD')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow53 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>434</v>
@@ -6655,15 +6717,15 @@
       </c>
       <c r="R55" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 54: Serial.println(F('AV_ROTEL_VIDEO1')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow54 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 54: Serial.println(F('AV_ROTEL_VIDEO1')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow54 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>434</v>
@@ -6708,15 +6770,15 @@
       </c>
       <c r="R56" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 55: Serial.println(F('AV_ROTEL_VIDEO2')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow55 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 55: Serial.println(F('AV_ROTEL_VIDEO2')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow55 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>434</v>
@@ -6761,15 +6823,15 @@
       </c>
       <c r="R57" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 56: Serial.println(F('AV_ROTEL_TAPE')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow56 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 56: Serial.println(F('AV_ROTEL_TAPE')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow56 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>434</v>
@@ -6814,10 +6876,10 @@
       </c>
       <c r="R58" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 57: Serial.println(F('AV_ROTEL_BAS EQ')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow57 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 57: Serial.println(F('AV_ROTEL_BAS EQ')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow57 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>251</v>
       </c>
@@ -6864,10 +6926,10 @@
       </c>
       <c r="R59" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 58: Serial.println(F('AV_ROTEL_LEVEL CHECK')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow58 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 58: Serial.println(F('AV_ROTEL_LEVEL CHECK')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow58 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>251</v>
       </c>
@@ -6914,10 +6976,10 @@
       </c>
       <c r="R60" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 59: Serial.println(F('AV_ROTEL_DELAY 20MS')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow59 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 59: Serial.println(F('AV_ROTEL_DELAY 20MS')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow59 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>251</v>
       </c>
@@ -6964,15 +7026,15 @@
       </c>
       <c r="R61" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 60: Serial.println(F('AV_ROTEL_DELAY 30MS')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow60 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 60: Serial.println(F('AV_ROTEL_DELAY 30MS')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow60 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>434</v>
@@ -7017,15 +7079,15 @@
       </c>
       <c r="R62" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 61: Serial.println(F('AV_ROTEL_DOLBY PRO LOGIC')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow61 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 61: Serial.println(F('AV_ROTEL_DOLBY PRO LOGIC')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow61 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>434</v>
@@ -7070,15 +7132,15 @@
       </c>
       <c r="R63" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 62: Serial.println(F('AV_ROTEL_NORMAL')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow62 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 62: Serial.println(F('AV_ROTEL_NORMAL')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow62 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>434</v>
@@ -7123,15 +7185,15 @@
       </c>
       <c r="R64" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 63: Serial.println(F('AV_ROTEL_PHANTOM')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow63 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 63: Serial.println(F('AV_ROTEL_PHANTOM')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow63 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>434</v>
@@ -7176,15 +7238,15 @@
       </c>
       <c r="R65" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>case 64: Serial.println(F('AV_ROTEL_WIDE')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow64 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 64: Serial.println(F('AV_ROTEL_WIDE')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow64 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>434</v>
@@ -7228,16 +7290,16 @@
         <v>282</v>
       </c>
       <c r="R66" s="4" t="str">
-        <f t="shared" ref="R66:R97" si="2">"case "&amp;G66&amp;": Serial.println(F('"&amp;C66&amp;"_"&amp;D66&amp;"_"&amp;E66&amp;"')); for (int i = 0; i &lt; "&amp;L66&amp;"; i++) data"&amp;L66&amp;"[i] = pgm_read_word_near(dataRow"&amp;G66&amp;" + i); txIr(1, "&amp;L66&amp;"); waitTx(); break;"</f>
-        <v>case 65: Serial.println(F('AV_ROTEL_JAZZ')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow65 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R66:R97" si="2">"case "&amp;G66&amp;": Serial.println(F('"&amp;C66&amp;"_"&amp;D66&amp;"_"&amp;E66&amp;"')); for (int i = 0; i &lt; "&amp;L66&amp;"; i++) data"&amp;L66&amp;"[i] = pgm_read_word_near(dataRow"&amp;G66&amp;" + i); txIr(1, "&amp;L66&amp;"); waitTx();"</f>
+        <v>case 65: Serial.println(F('AV_ROTEL_JAZZ')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow65 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>434</v>
@@ -7282,15 +7344,15 @@
       </c>
       <c r="R67" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 66: Serial.println(F('AV_ROTEL_CONCERT')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow66 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 66: Serial.println(F('AV_ROTEL_CONCERT')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow66 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>434</v>
@@ -7335,15 +7397,15 @@
       </c>
       <c r="R68" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 67: Serial.println(F('AV_ROTEL_STADIUM')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow67 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 67: Serial.println(F('AV_ROTEL_STADIUM')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow67 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>434</v>
@@ -7388,10 +7450,10 @@
       </c>
       <c r="R69" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 68: Serial.println(F('AV_ROTEL_STEREO')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow68 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 68: Serial.println(F('AV_ROTEL_STEREO')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow68 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>251</v>
       </c>
@@ -7438,10 +7500,10 @@
       </c>
       <c r="R70" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 69: Serial.println(F('AV_ROTEL_REAR LEFT')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow69 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 69: Serial.println(F('AV_ROTEL_REAR LEFT')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow69 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>251</v>
       </c>
@@ -7488,15 +7550,15 @@
       </c>
       <c r="R71" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 70: Serial.println(F('AV_ROTEL_REAR RIGTH')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow70 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 70: Serial.println(F('AV_ROTEL_REAR RIGTH')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow70 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>434</v>
@@ -7541,10 +7603,10 @@
       </c>
       <c r="R72" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 71: Serial.println(F('AV_ROTEL_MUTE')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow71 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 71: Serial.println(F('AV_ROTEL_MUTE')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow71 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>251</v>
       </c>
@@ -7591,10 +7653,10 @@
       </c>
       <c r="R73" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 72: Serial.println(F('AV_ROTEL_CENTER LEFT')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow72 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 72: Serial.println(F('AV_ROTEL_CENTER LEFT')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow72 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>251</v>
       </c>
@@ -7641,15 +7703,15 @@
       </c>
       <c r="R74" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 73: Serial.println(F('AV_ROTEL_CENTER RIGTH')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow73 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 73: Serial.println(F('AV_ROTEL_CENTER RIGTH')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow73 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>434</v>
@@ -7696,15 +7758,15 @@
       </c>
       <c r="R75" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 74: Serial.println(F('AV_ROTEL_VOL -')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow74 + i); txIr(1, 87); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 74: Serial.println(F('AV_ROTEL_VOL -')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow74 + i); txIr(1, 87); waitTx();</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>434</v>
@@ -7751,7 +7813,7 @@
       </c>
       <c r="R76" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 75: Serial.println(F('AV_ROTEL_VOL +')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow75 + i); txIr(1, 87); waitTx(); break;</v>
+        <v>case 75: Serial.println(F('AV_ROTEL_VOL +')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow75 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="12" x14ac:dyDescent="0.25">
@@ -7759,7 +7821,7 @@
         <v>279</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>689</v>
@@ -7806,10 +7868,10 @@
       </c>
       <c r="R77" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 76: Serial.println(F('DECODER_XORO_ON-OFF')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow76 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 76: Serial.println(F('DECODER_XORO_ON-OFF')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow76 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>279</v>
       </c>
@@ -7858,10 +7920,10 @@
       </c>
       <c r="R78" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 77: Serial.println(F('DECODER_XORO_MUTE')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow77 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 77: Serial.println(F('DECODER_XORO_MUTE')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow77 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>279</v>
       </c>
@@ -7910,10 +7972,10 @@
       </c>
       <c r="R79" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 78: Serial.println(F('DECODER_XORO_GOTO')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow78 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 78: Serial.println(F('DECODER_XORO_GOTO')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow78 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>279</v>
       </c>
@@ -7962,10 +8024,10 @@
       </c>
       <c r="R80" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 79: Serial.println(F('DECODER_XORO_RPT')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow79 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 79: Serial.println(F('DECODER_XORO_RPT')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow79 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>279</v>
       </c>
@@ -8014,10 +8076,10 @@
       </c>
       <c r="R81" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 80: Serial.println(F('DECODER_XORO_SUB-T')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow80 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 80: Serial.println(F('DECODER_XORO_SUB-T')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow80 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>279</v>
       </c>
@@ -8066,10 +8128,10 @@
       </c>
       <c r="R82" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 81: Serial.println(F('DECODER_XORO_AUDIO')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow81 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 81: Serial.println(F('DECODER_XORO_AUDIO')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow81 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>279</v>
       </c>
@@ -8118,10 +8180,10 @@
       </c>
       <c r="R83" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 82: Serial.println(F('DECODER_XORO_FR')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow82 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 82: Serial.println(F('DECODER_XORO_FR')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow82 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>279</v>
       </c>
@@ -8170,10 +8232,10 @@
       </c>
       <c r="R84" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 83: Serial.println(F('DECODER_XORO_FF')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow83 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 83: Serial.println(F('DECODER_XORO_FF')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow83 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>279</v>
       </c>
@@ -8222,10 +8284,10 @@
       </c>
       <c r="R85" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 84: Serial.println(F('DECODER_XORO_PREV')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow84 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 84: Serial.println(F('DECODER_XORO_PREV')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow84 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>279</v>
       </c>
@@ -8274,10 +8336,10 @@
       </c>
       <c r="R86" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 85: Serial.println(F('DECODER_XORO_NEXT')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow85 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 85: Serial.println(F('DECODER_XORO_NEXT')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow85 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>279</v>
       </c>
@@ -8326,10 +8388,10 @@
       </c>
       <c r="R87" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 86: Serial.println(F('DECODER_XORO_PLAY')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow86 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 86: Serial.println(F('DECODER_XORO_PLAY')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow86 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>279</v>
       </c>
@@ -8378,10 +8440,10 @@
       </c>
       <c r="R88" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 87: Serial.println(F('DECODER_XORO_PAUSE')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow87 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 87: Serial.println(F('DECODER_XORO_PAUSE')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow87 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>279</v>
       </c>
@@ -8430,10 +8492,10 @@
       </c>
       <c r="R89" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 88: Serial.println(F('DECODER_XORO_STOP/EJECT')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow88 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 88: Serial.println(F('DECODER_XORO_STOP/EJECT')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow88 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>279</v>
       </c>
@@ -8482,10 +8544,10 @@
       </c>
       <c r="R90" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 89: Serial.println(F('DECODER_XORO_REC')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow89 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 89: Serial.println(F('DECODER_XORO_REC')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow89 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>279</v>
       </c>
@@ -8534,10 +8596,10 @@
       </c>
       <c r="R91" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 90: Serial.println(F('DECODER_XORO_ROSSO')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow90 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 90: Serial.println(F('DECODER_XORO_ROSSO')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow90 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>279</v>
       </c>
@@ -8586,10 +8648,10 @@
       </c>
       <c r="R92" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 91: Serial.println(F('DECODER_XORO_VERDE')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow91 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 91: Serial.println(F('DECODER_XORO_VERDE')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow91 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>279</v>
       </c>
@@ -8636,10 +8698,10 @@
       </c>
       <c r="R93" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 92: Serial.println(F('DECODER_XORO_GIALLO')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow92 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 92: Serial.println(F('DECODER_XORO_GIALLO')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow92 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>279</v>
       </c>
@@ -8688,10 +8750,10 @@
       </c>
       <c r="R94" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 93: Serial.println(F('DECODER_XORO_BLU')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow93 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 93: Serial.println(F('DECODER_XORO_BLU')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow93 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>279</v>
       </c>
@@ -8740,7 +8802,7 @@
       </c>
       <c r="R95" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 94: Serial.println(F('DECODER_XORO_MENU')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow94 + i); txIr(1, 67); waitTx(); break;</v>
+        <v>case 94: Serial.println(F('DECODER_XORO_MENU')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow94 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="12" x14ac:dyDescent="0.25">
@@ -8748,7 +8810,7 @@
         <v>279</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>689</v>
@@ -8795,7 +8857,7 @@
       </c>
       <c r="R96" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 95: Serial.println(F('DECODER_XORO_EXIT')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow95 + i); txIr(1, 67); waitTx(); break;</v>
+        <v>case 95: Serial.println(F('DECODER_XORO_EXIT')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow95 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="12" x14ac:dyDescent="0.25">
@@ -8803,7 +8865,7 @@
         <v>279</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>689</v>
@@ -8850,7 +8912,7 @@
       </c>
       <c r="R97" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>case 96: Serial.println(F('DECODER_XORO_UP')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow96 + i); txIr(1, 67); waitTx(); break;</v>
+        <v>case 96: Serial.println(F('DECODER_XORO_UP')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow96 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="12" x14ac:dyDescent="0.25">
@@ -8858,7 +8920,7 @@
         <v>279</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>689</v>
@@ -8904,8 +8966,8 @@
         <v>431</v>
       </c>
       <c r="R98" s="4" t="str">
-        <f t="shared" ref="R98:R129" si="3">"case "&amp;G98&amp;": Serial.println(F('"&amp;C98&amp;"_"&amp;D98&amp;"_"&amp;E98&amp;"')); for (int i = 0; i &lt; "&amp;L98&amp;"; i++) data"&amp;L98&amp;"[i] = pgm_read_word_near(dataRow"&amp;G98&amp;" + i); txIr(1, "&amp;L98&amp;"); waitTx(); break;"</f>
-        <v>case 97: Serial.println(F('DECODER_XORO_LEFT')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow97 + i); txIr(1, 67); waitTx(); break;</v>
+        <f t="shared" ref="R98:R129" si="3">"case "&amp;G98&amp;": Serial.println(F('"&amp;C98&amp;"_"&amp;D98&amp;"_"&amp;E98&amp;"')); for (int i = 0; i &lt; "&amp;L98&amp;"; i++) data"&amp;L98&amp;"[i] = pgm_read_word_near(dataRow"&amp;G98&amp;" + i); txIr(1, "&amp;L98&amp;"); waitTx();"</f>
+        <v>case 97: Serial.println(F('DECODER_XORO_LEFT')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow97 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="12" x14ac:dyDescent="0.25">
@@ -8913,7 +8975,7 @@
         <v>279</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>689</v>
@@ -8960,7 +9022,7 @@
       </c>
       <c r="R99" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 98: Serial.println(F('DECODER_XORO_RIGTH')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow98 + i); txIr(1, 67); waitTx(); break;</v>
+        <v>case 98: Serial.println(F('DECODER_XORO_RIGTH')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow98 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
     <row r="100" spans="1:18" ht="12" x14ac:dyDescent="0.25">
@@ -8968,7 +9030,7 @@
         <v>279</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>689</v>
@@ -9015,7 +9077,7 @@
       </c>
       <c r="R100" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 99: Serial.println(F('DECODER_XORO_DOWN')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow99 + i); txIr(1, 67); waitTx(); break;</v>
+        <v>case 99: Serial.println(F('DECODER_XORO_DOWN')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow99 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="12" x14ac:dyDescent="0.25">
@@ -9023,7 +9085,7 @@
         <v>279</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>689</v>
@@ -9070,7 +9132,7 @@
       </c>
       <c r="R101" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 100: Serial.println(F('DECODER_XORO_OK')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow100 + i); txIr(1, 67); waitTx(); break;</v>
+        <v>case 100: Serial.println(F('DECODER_XORO_OK')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow100 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="12" x14ac:dyDescent="0.25">
@@ -9078,7 +9140,7 @@
         <v>279</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>689</v>
@@ -9125,7 +9187,7 @@
       </c>
       <c r="R102" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 101: Serial.println(F('DECODER_XORO_i')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow101 + i); txIr(1, 67); waitTx(); break;</v>
+        <v>case 101: Serial.println(F('DECODER_XORO_i')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow101 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="12" x14ac:dyDescent="0.25">
@@ -9133,7 +9195,7 @@
         <v>279</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>689</v>
@@ -9180,7 +9242,7 @@
       </c>
       <c r="R103" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 102: Serial.println(F('DECODER_XORO_INDIETRO')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow102 + i); txIr(1, 67); waitTx(); break;</v>
+        <v>case 102: Serial.println(F('DECODER_XORO_INDIETRO')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow102 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="12" x14ac:dyDescent="0.25">
@@ -9188,7 +9250,7 @@
         <v>279</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>689</v>
@@ -9235,7 +9297,7 @@
       </c>
       <c r="R104" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 103: Serial.println(F('DECODER_XORO_EPG')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow103 + i); txIr(1, 67); waitTx(); break;</v>
+        <v>case 103: Serial.println(F('DECODER_XORO_EPG')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow103 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
     <row r="105" spans="1:18" ht="12" x14ac:dyDescent="0.25">
@@ -9243,7 +9305,7 @@
         <v>279</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>689</v>
@@ -9290,7 +9352,7 @@
       </c>
       <c r="R105" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 104: Serial.println(F('DECODER_XORO_TXT')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow104 + i); txIr(1, 67); waitTx(); break;</v>
+        <v>case 104: Serial.println(F('DECODER_XORO_TXT')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow104 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="12" x14ac:dyDescent="0.25">
@@ -9298,7 +9360,7 @@
         <v>279</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>689</v>
@@ -9345,7 +9407,7 @@
       </c>
       <c r="R106" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 105: Serial.println(F('DECODER_XORO_VOL+')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow105 + i); txIr(1, 67); waitTx(); break;</v>
+        <v>case 105: Serial.println(F('DECODER_XORO_VOL+')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow105 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
     <row r="107" spans="1:18" ht="12" x14ac:dyDescent="0.25">
@@ -9353,7 +9415,7 @@
         <v>279</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>689</v>
@@ -9400,7 +9462,7 @@
       </c>
       <c r="R107" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 106: Serial.println(F('DECODER_XORO_VOL-')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow106 + i); txIr(1, 67); waitTx(); break;</v>
+        <v>case 106: Serial.println(F('DECODER_XORO_VOL-')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow106 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
     <row r="108" spans="1:18" ht="12" x14ac:dyDescent="0.25">
@@ -9408,7 +9470,7 @@
         <v>279</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>689</v>
@@ -9455,7 +9517,7 @@
       </c>
       <c r="R108" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 107: Serial.println(F('DECODER_XORO_PAGE+')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow107 + i); txIr(1, 67); waitTx(); break;</v>
+        <v>case 107: Serial.println(F('DECODER_XORO_PAGE+')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow107 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="12" x14ac:dyDescent="0.25">
@@ -9463,7 +9525,7 @@
         <v>279</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>689</v>
@@ -9510,10 +9572,10 @@
       </c>
       <c r="R109" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 108: Serial.println(F('DECODER_XORO_PAGE-')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow108 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 108: Serial.println(F('DECODER_XORO_PAGE-')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow108 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>279</v>
       </c>
@@ -9562,10 +9624,10 @@
       </c>
       <c r="R110" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 109: Serial.println(F('DECODER_XORO_1')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow109 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 109: Serial.println(F('DECODER_XORO_1')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow109 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>279</v>
       </c>
@@ -9614,10 +9676,10 @@
       </c>
       <c r="R111" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 110: Serial.println(F('DECODER_XORO_2')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow110 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 110: Serial.println(F('DECODER_XORO_2')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow110 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>279</v>
       </c>
@@ -9666,10 +9728,10 @@
       </c>
       <c r="R112" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 111: Serial.println(F('DECODER_XORO_3')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow111 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 111: Serial.println(F('DECODER_XORO_3')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow111 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>279</v>
       </c>
@@ -9718,10 +9780,10 @@
       </c>
       <c r="R113" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 112: Serial.println(F('DECODER_XORO_4')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow112 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 112: Serial.println(F('DECODER_XORO_4')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow112 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>279</v>
       </c>
@@ -9770,10 +9832,10 @@
       </c>
       <c r="R114" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 113: Serial.println(F('DECODER_XORO_5')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow113 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 113: Serial.println(F('DECODER_XORO_5')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow113 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>279</v>
       </c>
@@ -9822,10 +9884,10 @@
       </c>
       <c r="R115" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 114: Serial.println(F('DECODER_XORO_6')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow114 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 114: Serial.println(F('DECODER_XORO_6')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow114 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>279</v>
       </c>
@@ -9874,10 +9936,10 @@
       </c>
       <c r="R116" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 115: Serial.println(F('DECODER_XORO_7')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow115 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 115: Serial.println(F('DECODER_XORO_7')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow115 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>279</v>
       </c>
@@ -9926,10 +9988,10 @@
       </c>
       <c r="R117" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 116: Serial.println(F('DECODER_XORO_8')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow116 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 116: Serial.println(F('DECODER_XORO_8')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow116 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>279</v>
       </c>
@@ -9978,10 +10040,10 @@
       </c>
       <c r="R118" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 117: Serial.println(F('DECODER_XORO_9')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow117 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 117: Serial.println(F('DECODER_XORO_9')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow117 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>279</v>
       </c>
@@ -10030,10 +10092,10 @@
       </c>
       <c r="R119" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 118: Serial.println(F('DECODER_XORO_0')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow118 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 118: Serial.println(F('DECODER_XORO_0')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow118 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>279</v>
       </c>
@@ -10082,10 +10144,10 @@
       </c>
       <c r="R120" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 119: Serial.println(F('DECODER_XORO_TV/RADIO')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow119 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 119: Serial.println(F('DECODER_XORO_TV/RADIO')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow119 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>279</v>
       </c>
@@ -10134,15 +10196,15 @@
       </c>
       <c r="R121" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 120: Serial.println(F('DECODER_XORO_FAV')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow120 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 120: Serial.println(F('DECODER_XORO_FAV')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow120 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>435</v>
@@ -10191,15 +10253,15 @@
       </c>
       <c r="R122" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 121: Serial.println(F('TV_PANASONIC_ON-OFF')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow121 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 121: Serial.println(F('TV_PANASONIC_ON-OFF')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow121 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>435</v>
@@ -10246,15 +10308,15 @@
       </c>
       <c r="R123" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 122: Serial.println(F('TV_PANASONIC_3D')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow122 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 122: Serial.println(F('TV_PANASONIC_3D')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow122 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>435</v>
@@ -10303,15 +10365,15 @@
       </c>
       <c r="R124" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 123: Serial.println(F('TV_PANASONIC_TV')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow123 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 123: Serial.println(F('TV_PANASONIC_TV')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow123 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>435</v>
@@ -10360,15 +10422,15 @@
       </c>
       <c r="R125" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 124: Serial.println(F('TV_PANASONIC_AV')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow124 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 124: Serial.println(F('TV_PANASONIC_AV')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow124 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>435</v>
@@ -10415,15 +10477,15 @@
       </c>
       <c r="R126" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 125: Serial.println(F('TV_PANASONIC_MENU')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow125 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 125: Serial.println(F('TV_PANASONIC_MENU')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow125 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>435</v>
@@ -10470,15 +10532,15 @@
       </c>
       <c r="R127" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 126: Serial.println(F('TV_PANASONIC_ASPECT')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow126 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 126: Serial.println(F('TV_PANASONIC_ASPECT')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow126 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>435</v>
@@ -10525,15 +10587,15 @@
       </c>
       <c r="R128" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 127: Serial.println(F('TV_PANASONIC_INTERNET')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow127 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 127: Serial.println(F('TV_PANASONIC_INTERNET')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow127 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>435</v>
@@ -10580,15 +10642,15 @@
       </c>
       <c r="R129" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>case 128: Serial.println(F('TV_PANASONIC_DIRECT TV REC')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow128 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 128: Serial.println(F('TV_PANASONIC_DIRECT TV REC')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow128 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>435</v>
@@ -10606,7 +10668,7 @@
         <v>129</v>
       </c>
       <c r="H130" s="26" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="I130" s="5" t="s">
         <v>445</v>
@@ -10636,16 +10698,16 @@
         <v>622</v>
       </c>
       <c r="R130" s="4" t="str">
-        <f t="shared" ref="R130:R161" si="4">"case "&amp;G130&amp;": Serial.println(F('"&amp;C130&amp;"_"&amp;D130&amp;"_"&amp;E130&amp;"')); for (int i = 0; i &lt; "&amp;L130&amp;"; i++) data"&amp;L130&amp;"[i] = pgm_read_word_near(dataRow"&amp;G130&amp;" + i); txIr(1, "&amp;L130&amp;"); waitTx(); break;"</f>
-        <v>case 129: Serial.println(F('TV_PANASONIC_i')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow129 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R130:R161" si="4">"case "&amp;G130&amp;": Serial.println(F('"&amp;C130&amp;"_"&amp;D130&amp;"_"&amp;E130&amp;"')); for (int i = 0; i &lt; "&amp;L130&amp;"; i++) data"&amp;L130&amp;"[i] = pgm_read_word_near(dataRow"&amp;G130&amp;" + i); txIr(1, "&amp;L130&amp;"); waitTx();"</f>
+        <v>case 129: Serial.println(F('TV_PANASONIC_i')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow129 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>435</v>
@@ -10694,15 +10756,15 @@
       </c>
       <c r="R131" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 130: Serial.println(F('TV_PANASONIC_EXIT')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow130 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 130: Serial.println(F('TV_PANASONIC_EXIT')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow130 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>435</v>
@@ -10749,15 +10811,15 @@
       </c>
       <c r="R132" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 131: Serial.println(F('TV_PANASONIC_VIERA LINK')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow131 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 131: Serial.println(F('TV_PANASONIC_VIERA LINK')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow131 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>435</v>
@@ -10804,15 +10866,15 @@
       </c>
       <c r="R133" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 132: Serial.println(F('TV_PANASONIC_VIERA TOOLS')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow132 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 132: Serial.println(F('TV_PANASONIC_VIERA TOOLS')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow132 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>435</v>
@@ -10859,15 +10921,15 @@
       </c>
       <c r="R134" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 133: Serial.println(F('TV_PANASONIC_GUIDE')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow133 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 133: Serial.println(F('TV_PANASONIC_GUIDE')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow133 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>435</v>
@@ -10916,15 +10978,15 @@
       </c>
       <c r="R135" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 134: Serial.println(F('TV_PANASONIC_UP')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow134 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 134: Serial.println(F('TV_PANASONIC_UP')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow134 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>435</v>
@@ -10973,15 +11035,15 @@
       </c>
       <c r="R136" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 135: Serial.println(F('TV_PANASONIC_LEFT')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow135 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 135: Serial.println(F('TV_PANASONIC_LEFT')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow135 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>435</v>
@@ -11030,15 +11092,15 @@
       </c>
       <c r="R137" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 136: Serial.println(F('TV_PANASONIC_RIGHT')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow136 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 136: Serial.println(F('TV_PANASONIC_RIGHT')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow136 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>435</v>
@@ -11087,15 +11149,15 @@
       </c>
       <c r="R138" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 137: Serial.println(F('TV_PANASONIC_DOWN')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow137 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 137: Serial.println(F('TV_PANASONIC_DOWN')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow137 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>435</v>
@@ -11144,15 +11206,15 @@
       </c>
       <c r="R139" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 138: Serial.println(F('TV_PANASONIC_OK')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow138 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 138: Serial.println(F('TV_PANASONIC_OK')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow138 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>435</v>
@@ -11199,15 +11261,15 @@
       </c>
       <c r="R140" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 139: Serial.println(F('TV_PANASONIC_OPTION')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow139 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 139: Serial.println(F('TV_PANASONIC_OPTION')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow139 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>435</v>
@@ -11254,15 +11316,15 @@
       </c>
       <c r="R141" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 140: Serial.println(F('TV_PANASONIC_BACK/RETURN')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow140 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 140: Serial.println(F('TV_PANASONIC_BACK/RETURN')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow140 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>435</v>
@@ -11309,15 +11371,15 @@
       </c>
       <c r="R142" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 141: Serial.println(F('TV_PANASONIC_ROSSO')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow141 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 141: Serial.println(F('TV_PANASONIC_ROSSO')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow141 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>435</v>
@@ -11364,15 +11426,15 @@
       </c>
       <c r="R143" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 142: Serial.println(F('TV_PANASONIC_VERDE')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow142 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 142: Serial.println(F('TV_PANASONIC_VERDE')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow142 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>435</v>
@@ -11419,15 +11481,15 @@
       </c>
       <c r="R144" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 143: Serial.println(F('TV_PANASONIC_GIALLO')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow143 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 143: Serial.println(F('TV_PANASONIC_GIALLO')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow143 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>435</v>
@@ -11474,15 +11536,15 @@
       </c>
       <c r="R145" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 144: Serial.println(F('TV_PANASONIC_BLU')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow144 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 144: Serial.println(F('TV_PANASONIC_BLU')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow144 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>435</v>
@@ -11529,15 +11591,15 @@
       </c>
       <c r="R146" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 145: Serial.println(F('TV_PANASONIC_TEXT')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow145 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 145: Serial.println(F('TV_PANASONIC_TEXT')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow145 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>435</v>
@@ -11584,15 +11646,15 @@
       </c>
       <c r="R147" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 146: Serial.println(F('TV_PANASONIC_STTL')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow146 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 146: Serial.println(F('TV_PANASONIC_STTL')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow146 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>435</v>
@@ -11639,15 +11701,15 @@
       </c>
       <c r="R148" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 147: Serial.println(F('TV_PANASONIC_INDEX')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow147 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 147: Serial.println(F('TV_PANASONIC_INDEX')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow147 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>435</v>
@@ -11694,15 +11756,15 @@
       </c>
       <c r="R149" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 148: Serial.println(F('TV_PANASONIC_HOLD')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow148 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 148: Serial.println(F('TV_PANASONIC_HOLD')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow148 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>435</v>
@@ -11749,15 +11811,15 @@
       </c>
       <c r="R150" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 149: Serial.println(F('TV_PANASONIC_1')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow149 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 149: Serial.println(F('TV_PANASONIC_1')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow149 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>435</v>
@@ -11804,15 +11866,15 @@
       </c>
       <c r="R151" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 150: Serial.println(F('TV_PANASONIC_2')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow150 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 150: Serial.println(F('TV_PANASONIC_2')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow150 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>435</v>
@@ -11859,15 +11921,15 @@
       </c>
       <c r="R152" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 151: Serial.println(F('TV_PANASONIC_3')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow151 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 151: Serial.println(F('TV_PANASONIC_3')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow151 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>435</v>
@@ -11914,15 +11976,15 @@
       </c>
       <c r="R153" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 152: Serial.println(F('TV_PANASONIC_4')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow152 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 152: Serial.println(F('TV_PANASONIC_4')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow152 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>435</v>
@@ -11969,15 +12031,15 @@
       </c>
       <c r="R154" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 153: Serial.println(F('TV_PANASONIC_5')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow153 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 153: Serial.println(F('TV_PANASONIC_5')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow153 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>435</v>
@@ -12024,15 +12086,15 @@
       </c>
       <c r="R155" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 154: Serial.println(F('TV_PANASONIC_6')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow154 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 154: Serial.println(F('TV_PANASONIC_6')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow154 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>435</v>
@@ -12079,15 +12141,15 @@
       </c>
       <c r="R156" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 155: Serial.println(F('TV_PANASONIC_7')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow155 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 155: Serial.println(F('TV_PANASONIC_7')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow155 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>435</v>
@@ -12134,15 +12196,15 @@
       </c>
       <c r="R157" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 156: Serial.println(F('TV_PANASONIC_8')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow156 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 156: Serial.println(F('TV_PANASONIC_8')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow156 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>435</v>
@@ -12189,15 +12251,15 @@
       </c>
       <c r="R158" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 157: Serial.println(F('TV_PANASONIC_9')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow157 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 157: Serial.println(F('TV_PANASONIC_9')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow157 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>435</v>
@@ -12244,15 +12306,15 @@
       </c>
       <c r="R159" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 158: Serial.println(F('TV_PANASONIC_0')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow158 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 158: Serial.println(F('TV_PANASONIC_0')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow158 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>435</v>
@@ -12301,15 +12363,15 @@
       </c>
       <c r="R160" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 159: Serial.println(F('TV_PANASONIC_MUTE')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow159 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 159: Serial.println(F('TV_PANASONIC_MUTE')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow159 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>435</v>
@@ -12356,15 +12418,15 @@
       </c>
       <c r="R161" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>case 160: Serial.println(F('TV_PANASONIC_LAST VIEW')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow160 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 160: Serial.println(F('TV_PANASONIC_LAST VIEW')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow160 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>435</v>
@@ -12412,16 +12474,16 @@
         <v>622</v>
       </c>
       <c r="R162" s="4" t="str">
-        <f t="shared" ref="R162:R189" si="5">"case "&amp;G162&amp;": Serial.println(F('"&amp;C162&amp;"_"&amp;D162&amp;"_"&amp;E162&amp;"')); for (int i = 0; i &lt; "&amp;L162&amp;"; i++) data"&amp;L162&amp;"[i] = pgm_read_word_near(dataRow"&amp;G162&amp;" + i); txIr(1, "&amp;L162&amp;"); waitTx(); break;"</f>
-        <v>case 161: Serial.println(F('TV_PANASONIC_VOL+')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow161 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R162:R189" si="5">"case "&amp;G162&amp;": Serial.println(F('"&amp;C162&amp;"_"&amp;D162&amp;"_"&amp;E162&amp;"')); for (int i = 0; i &lt; "&amp;L162&amp;"; i++) data"&amp;L162&amp;"[i] = pgm_read_word_near(dataRow"&amp;G162&amp;" + i); txIr(1, "&amp;L162&amp;"); waitTx();"</f>
+        <v>case 161: Serial.println(F('TV_PANASONIC_VOL+')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow161 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>435</v>
@@ -12470,15 +12532,15 @@
       </c>
       <c r="R163" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 162: Serial.println(F('TV_PANASONIC_VOL-')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow162 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 162: Serial.println(F('TV_PANASONIC_VOL-')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow162 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>435</v>
@@ -12527,15 +12589,15 @@
       </c>
       <c r="R164" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 163: Serial.println(F('TV_PANASONIC_PROG+')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow163 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
+        <v>case 163: Serial.println(F('TV_PANASONIC_PROG+')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow163 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>435</v>
@@ -12584,15 +12646,15 @@
       </c>
       <c r="R165" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 164: Serial.println(F('TV_PANASONIC_PROG-')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow164 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 164: Serial.println(F('TV_PANASONIC_PROG-')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow164 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>435</v>
@@ -12639,15 +12701,15 @@
       </c>
       <c r="R166" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 165: Serial.println(F('TV_PANASONIC_VCR ON-OFF')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow165 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 165: Serial.println(F('TV_PANASONIC_VCR ON-OFF')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow165 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>435</v>
@@ -12694,15 +12756,15 @@
       </c>
       <c r="R167" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 166: Serial.println(F('TV_PANASONIC_VCR REC')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow166 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 166: Serial.println(F('TV_PANASONIC_VCR REC')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow166 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>435</v>
@@ -12749,15 +12811,15 @@
       </c>
       <c r="R168" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 167: Serial.println(F('TV_PANASONIC_VCR DOWN')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow167 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 167: Serial.println(F('TV_PANASONIC_VCR DOWN')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow167 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>435</v>
@@ -12804,15 +12866,15 @@
       </c>
       <c r="R169" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 168: Serial.println(F('TV_PANASONIC_VCR UP')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow168 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 168: Serial.println(F('TV_PANASONIC_VCR UP')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow168 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>435</v>
@@ -12859,15 +12921,15 @@
       </c>
       <c r="R170" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 169: Serial.println(F('TV_PANASONIC_VCR PREV')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow169 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 169: Serial.println(F('TV_PANASONIC_VCR PREV')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow169 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>435</v>
@@ -12914,15 +12976,15 @@
       </c>
       <c r="R171" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 170: Serial.println(F('TV_PANASONIC_VCR PLAY')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow170 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 170: Serial.println(F('TV_PANASONIC_VCR PLAY')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow170 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>435</v>
@@ -12969,15 +13031,15 @@
       </c>
       <c r="R172" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 171: Serial.println(F('TV_PANASONIC_VCR NEXT')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow171 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 171: Serial.println(F('TV_PANASONIC_VCR NEXT')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow171 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>435</v>
@@ -13024,15 +13086,15 @@
       </c>
       <c r="R173" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 172: Serial.println(F('TV_PANASONIC_VCR STOP')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow172 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 172: Serial.println(F('TV_PANASONIC_VCR STOP')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow172 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>435</v>
@@ -13079,10 +13141,10 @@
       </c>
       <c r="R174" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 173: Serial.println(F('TV_PANASONIC_VCR PAUSE')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow173 + i); txIr(1, 99); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="175" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 173: Serial.println(F('TV_PANASONIC_VCR PAUSE')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow173 + i); txIr(1, 99); waitTx();</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>432</v>
       </c>
@@ -13113,10 +13175,10 @@
       </c>
       <c r="R175" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 174: Serial.println(F('TV_PANASONIC_DVD/DCR')); for (int i = 0; i &lt; ; i++) data[i] = pgm_read_word_near(dataRow174 + i); txIr(1, ); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="176" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 174: Serial.println(F('TV_PANASONIC_DVD/DCR')); for (int i = 0; i &lt; ; i++) data[i] = pgm_read_word_near(dataRow174 + i); txIr(1, ); waitTx();</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>432</v>
       </c>
@@ -13147,10 +13209,10 @@
       </c>
       <c r="R176" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 175: Serial.println(F('TV_PANASONIC_TV')); for (int i = 0; i &lt; ; i++) data[i] = pgm_read_word_near(dataRow175 + i); txIr(1, ); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 175: Serial.println(F('TV_PANASONIC_TV')); for (int i = 0; i &lt; ; i++) data[i] = pgm_read_word_near(dataRow175 + i); txIr(1, ); waitTx();</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>623</v>
       </c>
@@ -13199,10 +13261,10 @@
       </c>
       <c r="R177" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 176: Serial.println(F('SWITCH_NN_1')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow176 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 176: Serial.println(F('SWITCH_NN_1')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow176 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>623</v>
       </c>
@@ -13251,10 +13313,10 @@
       </c>
       <c r="R178" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 177: Serial.println(F('SWITCH_NN_2')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow177 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="179" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 177: Serial.println(F('SWITCH_NN_2')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow177 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>623</v>
       </c>
@@ -13303,10 +13365,10 @@
       </c>
       <c r="R179" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 178: Serial.println(F('SWITCH_NN_3')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow178 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="180" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 178: Serial.println(F('SWITCH_NN_3')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow178 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>623</v>
       </c>
@@ -13355,10 +13417,10 @@
       </c>
       <c r="R180" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 179: Serial.println(F('SWITCH_NN_UP')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow179 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="181" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 179: Serial.println(F('SWITCH_NN_UP')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow179 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>623</v>
       </c>
@@ -13407,10 +13469,10 @@
       </c>
       <c r="R181" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 180: Serial.println(F('SWITCH_NN_DOWN')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow180 + i); txIr(1, 67); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="182" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 180: Serial.println(F('SWITCH_NN_DOWN')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow180 + i); txIr(1, 67); waitTx();</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>640</v>
       </c>
@@ -13455,10 +13517,10 @@
       </c>
       <c r="R182" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 181: Serial.println(F('VARIE_LITE_1')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow181 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="183" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 181: Serial.println(F('VARIE_LITE_1')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow181 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>640</v>
       </c>
@@ -13503,10 +13565,10 @@
       </c>
       <c r="R183" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 182: Serial.println(F('VARIE_LITE_2')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow182 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="184" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 182: Serial.println(F('VARIE_LITE_2')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow182 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>640</v>
       </c>
@@ -13551,10 +13613,10 @@
       </c>
       <c r="R184" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 183: Serial.println(F('VARIE_LITE_3')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow183 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="185" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 183: Serial.println(F('VARIE_LITE_3')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow183 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>640</v>
       </c>
@@ -13599,10 +13661,10 @@
       </c>
       <c r="R185" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 184: Serial.println(F('VARIE_LITE_4')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow184 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="186" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 184: Serial.println(F('VARIE_LITE_4')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow184 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>640</v>
       </c>
@@ -13647,10 +13709,10 @@
       </c>
       <c r="R186" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 185: Serial.println(F('VARIE_LITE_5')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow185 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="187" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 185: Serial.println(F('VARIE_LITE_5')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow185 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>640</v>
       </c>
@@ -13695,10 +13757,10 @@
       </c>
       <c r="R187" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 186: Serial.println(F('VARIE_LITE_MUTE')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow186 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="188" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 186: Serial.println(F('VARIE_LITE_MUTE')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow186 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>640</v>
       </c>
@@ -13743,10 +13805,10 @@
       </c>
       <c r="R188" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 187: Serial.println(F('VARIE_LITE_VOL+')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow187 + i); txIr(1, 23); waitTx(); break;</v>
-      </c>
-    </row>
-    <row r="189" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+        <v>case 187: Serial.println(F('VARIE_LITE_VOL+')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow187 + i); txIr(1, 23); waitTx();</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>640</v>
       </c>
@@ -13791,7 +13853,7 @@
       </c>
       <c r="R189" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>case 188: Serial.println(F('VARIE_LITE_VOL-')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow188 + i); txIr(1, 23); waitTx(); break;</v>
+        <v>case 188: Serial.println(F('VARIE_LITE_VOL-')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow188 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
   </sheetData>
@@ -13805,16 +13867,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32DA353-5FBF-49A0-A141-2AD47FE870F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32DA353-5FBF-49A0-A141-2AD47FE870F3}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="24" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="21" customWidth="1"/>
-    <col min="3" max="4" width="16.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="21" customWidth="1"/>
     <col min="5" max="5" width="100.7109375" style="21" customWidth="1"/>
     <col min="6" max="6" width="83.85546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" style="21" customWidth="1"/>
@@ -13823,19 +13888,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>889</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>890</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>891</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>892</v>
-      </c>
       <c r="E1" s="22" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -13850,11 +13915,11 @@
         <v>_8950-4450-550-550-600-550-550-550-550-550-600-550-550-550-550-550-600-550-550-1650-600-1650-550-1650-600-1650-600-1650-550-1700-550-500-600-1700-550-1650-600-550-550-550-550-1650-600-1650-550-550-600-1650-550-550-600-500-600-1650-600-1650-550-550-600-550-550-1650-600-550-550-1650-600</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="E2" s="21" t="str">
-        <f t="shared" ref="E2:E34" si="0">"const unsigned int dataRow"&amp;A2&amp;"[] PROGMEM = {"&amp;RIGHT(D2,LEN(D2)-1)&amp;"};"</f>
-        <v>const unsigned int dataRow76[] PROGMEM = {900,800,900,800,850,800,900,800,900,800,850,800,1750,750,950,750,900,1650,850,800,1700,800,900};</v>
+        <f t="shared" ref="E2:E3" si="0">"const unsigned int dataRow"&amp;A2&amp;"[] PROGMEM = {"&amp;RIGHT(D2,LEN(D2)-1)&amp;"};"</f>
+        <v>const unsigned int dataRow76[] PROGMEM = {8950,4450,550,550,600,550,550,550,550,550,600,550,550,550,550,550,600,550,550,1650,600,1650,550,1650,600,1650,600,1650,550,1700,550,500,600,1700,550,1650,600,550,550,550,550,1650,600,1650,550,550,600,1650,550,550,600,500,600,1650,600,1650,550,550,600,550,550,1650,600,550,550,1650,600};</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -13865,15 +13930,15 @@
         <v>783</v>
       </c>
       <c r="C3" s="21" t="str">
-        <f t="shared" ref="C3:C34" si="1">"_"&amp;B3</f>
+        <f t="shared" ref="C3" si="1">"_"&amp;B3</f>
         <v>_8950-4450-550-550-550-550-600-550-550-550-550-600-550-550-550-550-550-600-550-1650-550-1700-550-1700-550-1650-550-1700-550-1650-600-550-550-1700-550-1650-550-600-550-1650-550-600-550-550-550-550-550-600-550-550-550-550-550-1700-550-550-550-1700-550-1700-550-1650-550-1700-550-1650-550</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>884</v>
+        <v>899</v>
       </c>
       <c r="E3" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>const unsigned int dataRow95[] PROGMEM = {900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,750};</v>
+        <v>const unsigned int dataRow95[] PROGMEM = {8950,4450,550,550,550,550,600,550,550,550,550,600,550,550,550,550,550,600,550,1650,550,1700,550,1700,550,1650,550,1700,550,1650,600,550,550,1700,550,1650,550,600,550,1650,550,600,550,550,550,550,550,600,550,550,550,550,550,1700,550,550,550,1700,550,1700,550,1650,550,1700,550,1650,550};</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -13892,7 +13957,7 @@
       </c>
       <c r="E4" s="21" t="str">
         <f t="shared" ref="E4:E16" si="3">"const unsigned int dataRow"&amp;A4&amp;"[] PROGMEM = {"&amp;RIGHT(D4,LEN(D4)-1)&amp;"};"</f>
-        <v>const unsigned int dataRow96[] PROGMEM = {900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,751};</v>
+        <v>const unsigned int dataRow96[] PROGMEM = {8900,4500,550,550,550,600,550,550,550,550,550,600,550,550,550,550,550,600,500,1700,550,1700,550,1700,500,1700,550,1650,600,1700,500,600,550,1650,550,600,550,1650,550,1700,550,550,550,600,550,550,550,550,550,550,600,1650,550,550,600,550,550,1650,600,1650,550,1700,550,1700,500,1700,550};</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -13911,7 +13976,7 @@
       </c>
       <c r="E5" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow97[] PROGMEM = {900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,752};</v>
+        <v>const unsigned int dataRow97[] PROGMEM = {9050,4350,650,500,650,450,700,400,650,450,700,450,650,450,650,500,650,450,650,1600,650,1550,700,1550,700,1500,700,1550,650,1600,650,450,650,1600,650,450,650,1600,650,450,650,1600,650,1600,650,450,650,1600,650,450,650,1600,650,450,650,1600,650,450,650,450,650,1550,700,450,650,1550,700};</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -13930,7 +13995,7 @@
       </c>
       <c r="E6" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow98[] PROGMEM = {900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,753};</v>
+        <v>const unsigned int dataRow98[] PROGMEM = {8900,4500,550,550,550,600,500,600,550,550,550,600,500,600,550,550,550,550,550,1700,550,1700,550,1700,500,1700,550,1700,550,1700,500,600,550,1700,500,1700,550,1700,550,550,550,1700,550,1700,500,600,550,550,550,600,500,600,550,550,550,1700,550,550,550,600,500,1700,550,1700,550,1650,550};</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -13949,7 +14014,7 @@
       </c>
       <c r="E7" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow99[] PROGMEM = {900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,754};</v>
+        <v>const unsigned int dataRow99[] PROGMEM = {9050,4350,650,500,600,500,650,450,650,500,650,450,650,450,650,500,650,450,600,1650,600,1600,650,1600,650,1550,700,1550,650,1550,700,450,650,1600,600,500,650,1600,600,1650,600,500,650,1600,600,500,650,450,650,500,600,1600,650,450,650,500,600,1600,650,450,650,1600,650,1600,650,1550,650};</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -13968,7 +14033,7 @@
       </c>
       <c r="E8" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow100[] PROGMEM = {900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,755};</v>
+        <v>const unsigned int dataRow100[] PROGMEM = {8950,4450,600,550,550,550,550,550,600,500,600,550,550,550,600,500,600,550,650,1600,550,1650,600,1650,550,1700,550,1650,650,1600,550,550,600,1650,550,550,600,1650,550,550,650,1600,550,1700,550,550,550,550,600,550,550,1650,600,500,600,1650,600,500,650,500,550,1700,550,1650,600,1650,550};</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -13987,7 +14052,7 @@
       </c>
       <c r="E9" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow101[] PROGMEM = {900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,756};</v>
+        <v>const unsigned int dataRow101[] PROGMEM = {8950,4450,550,550,600,500,600,550,550,550,600,500,600,550,550,550,600,550,550,1650,600,1650,550,1650,600,1650,600,1650,550,1700,550,550,550,1700,550,1650,600,1600,600,1700,550,550,550,1700,550,550,550,550,600,500,600,550,550,550,600,500,600,1650,600,500,600,1650,600,1650,550,1650,600};</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -14006,7 +14071,7 @@
       </c>
       <c r="E10" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow102[] PROGMEM = {900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,757};</v>
+        <v>const unsigned int dataRow102[] PROGMEM = {9000,4400,650,500,600,450,650,500,650,450,650,500,550,550,600,500,650,450,650,1600,650,1600,600,1650,600,1600,650,1600,600,1650,550,550,600,1650,600,1600,650,1600,550,550,550,550,650,1600,650,450,650,500,600,500,550,600,500,600,600,1650,600,1600,650,500,600,1600,650,1600,600,1600,650};</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -14025,7 +14090,7 @@
       </c>
       <c r="E11" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow103[] PROGMEM = {900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,758};</v>
+        <v>const unsigned int dataRow103[] PROGMEM = {9000,4400,650,500,600,500,600,500,650,450,650,500,600,500,650,450,650,500,600,1600,650,1600,600,1600,650,1600,650,1600,600,1650,600,500,600,1650,600,1600,650,450,650,1600,650,1600,600,500,650,500,600,1600,650,450,650,500,600,1650,600,500,600,500,650,1600,600,1600,650,500,600,1650,600};</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -14044,7 +14109,7 @@
       </c>
       <c r="E12" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow104[] PROGMEM = {900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,759};</v>
+        <v>const unsigned int dataRow104[] PROGMEM = {9000,4400,650,500,600,500,600,500,650,450,650,500,550,550,650,450,650,500,550,1700,600,1600,650,1600,600,1650,600,1600,650,1600,600,500,650,1600,600,500,650,500,600,500,600,1600,650,1600,650,500,600,500,600,500,650,1600,600,1650,600,1600,550,600,600,500,600,1650,600,1600,550,1650,650};</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -14063,7 +14128,7 @@
       </c>
       <c r="E13" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow105[] PROGMEM = {900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,760};</v>
+        <v>const unsigned int dataRow105[] PROGMEM = {8950,4450,550,600,550,550,550,600,500,600,550,550,550,600,500,550,600,550,550,1700,550,1700,500,1700,550,1700,550,1700,500,1700,550,550,550,1700,550,1700,550,550,550,600,500,600,550,550,600,500,550,550,600,550,550,550,550,1700,550,1700,550,1650,550,1700,550,1700,500,1700,550,1700,550};</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -14082,7 +14147,7 @@
       </c>
       <c r="E14" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow106[] PROGMEM = {900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,761};</v>
+        <v>const unsigned int dataRow106[] PROGMEM = {9050,4350,650,450,650,500,650,450,650,450,650,500,650,450,650,450,650,500,650,1550,650,1600,650,1600,600,1600,650,1600,650,1550,700,450,650,1600,650,450,650,1600,650,450,650,450,650,500,650,450,650,450,650,500,650,1550,650,500,650,1550,650,1600,650,1550,700,1550,650,1600,650,1550,650};</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -14101,7 +14166,7 @@
       </c>
       <c r="E15" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow107[] PROGMEM = {900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,762};</v>
+        <v>const unsigned int dataRow107[] PROGMEM = {9050,4400,600,500,650,450,650,450,700,450,650,450,650,450,650,500,650,450,650,1600,650,1550,650,1600,650,1600,650,1600,600,1600,650,450,700,1550,650,1600,650,450,650,1600,650,1600,600,500,600,500,650,500,600,500,650,450,650,1600,650,450,650,500,650,1550,650,1600,650,1600,650,1550,650};</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -14120,12 +14185,13 @@
       </c>
       <c r="E16" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow108[] PROGMEM = {900,800,850,850,850,850,800,850,850,850,800,850,1700,800,900,800,850,1650,900,800,900,800,850,850,763};</v>
+        <v>const unsigned int dataRow108[] PROGMEM = {9050,4350,650,500,650,450,650,450,650,500,650,450,650,450,650,500,650,450,650,1550,700,1550,650,1600,650,1550,700,1550,650,1600,650,450,650,1600,650,1600,650,450,650,450,650,500,650,1550,650,500,650,400,700,450,650,500,650,1550,650,1600,650,1550,700,400,700,1550,650,1600,650,1550,700};</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Codici.xlsx
+++ b/Codici.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIEFFE2\My Drive 3\GIT\ARDUINO\PROGETTI\ARI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3ECA7C-252C-4BC6-AE1B-00EC682927C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CDFC4C-D802-456C-9C0D-074CE3E65550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1155" windowWidth="25245" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="165" windowWidth="24765" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codici e comandi" sheetId="1" r:id="rId1"/>
@@ -3468,13 +3468,8 @@
   <autoFilter ref="A1:R189" xr:uid="{D8D0A749-F962-4F1B-B21E-FE4D8D038816}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Xoro"/>
+        <filter val="Primare c23"/>
       </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="18">
@@ -3768,7 +3763,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3788,7 +3785,7 @@
     <col min="15" max="15" width="4.28515625" style="8" customWidth="1"/>
     <col min="16" max="16" width="26.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="87.28515625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="121.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -3848,7 +3845,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>97</v>
       </c>
@@ -3905,7 +3902,7 @@
         <v>case 1: Serial.println(F('BD_PRIMARE_ON-OFF')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow1 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>97</v>
       </c>
@@ -3957,7 +3954,7 @@
         <v>case 2: Serial.println(F('BD_PRIMARE_DIM')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow2 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>97</v>
       </c>
@@ -3991,7 +3988,7 @@
         <v>case 3: Serial.println(F('BD_PRIMARE_MUTE')); for (int i = 0; i &lt; ; i++) data[i] = pgm_read_word_near(dataRow3 + i); txIr(1, ); waitTx();</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>97</v>
       </c>
@@ -4046,7 +4043,7 @@
         <v>case 4: Serial.println(F('BD_PRIMARE_1')); for (int i = 0; i &lt; 25; i++) data25[i] = pgm_read_word_near(dataRow4 + i); txIr(1, 25); waitTx();</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>97</v>
       </c>
@@ -4101,7 +4098,7 @@
         <v>case 5: Serial.println(F('BD_PRIMARE_2')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow5 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>97</v>
       </c>
@@ -4156,7 +4153,7 @@
         <v>case 6: Serial.println(F('BD_PRIMARE_3')); for (int i = 0; i &lt; 25; i++) data25[i] = pgm_read_word_near(dataRow6 + i); txIr(1, 25); waitTx();</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>97</v>
       </c>
@@ -4211,7 +4208,7 @@
         <v>case 7: Serial.println(F('BD_PRIMARE_4')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow7 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>97</v>
       </c>
@@ -4266,7 +4263,7 @@
         <v>case 8: Serial.println(F('BD_PRIMARE_5')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow8 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>97</v>
       </c>
@@ -4321,7 +4318,7 @@
         <v>case 9: Serial.println(F('BD_PRIMARE_6')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow9 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>97</v>
       </c>
@@ -4376,7 +4373,7 @@
         <v>case 10: Serial.println(F('BD_PRIMARE_7')); for (int i = 0; i &lt; 25; i++) data25[i] = pgm_read_word_near(dataRow10 + i); txIr(1, 25); waitTx();</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>97</v>
       </c>
@@ -4431,7 +4428,7 @@
         <v>case 11: Serial.println(F('BD_PRIMARE_8')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow11 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>97</v>
       </c>
@@ -4486,7 +4483,7 @@
         <v>case 12: Serial.println(F('BD_PRIMARE_9')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow12 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>97</v>
       </c>
@@ -4539,7 +4536,7 @@
         <v>case 13: Serial.println(F('BD_PRIMARE_0')); for (int i = 0; i &lt; 25; i++) data25[i] = pgm_read_word_near(dataRow13 + i); txIr(1, 25); waitTx();</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>97</v>
       </c>
@@ -4594,7 +4591,7 @@
         <v>case 14: Serial.println(F('BD_PRIMARE_C')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow14 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>97</v>
       </c>
@@ -4649,7 +4646,7 @@
         <v>case 15: Serial.println(F('BD_PRIMARE_10P')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow15 + i); txIr(1, 21); waitTx();</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>97</v>
       </c>
@@ -4683,7 +4680,7 @@
         <v>case 16: Serial.println(F('BD_PRIMARE_AMP')); for (int i = 0; i &lt; ; i++) data[i] = pgm_read_word_near(dataRow16 + i); txIr(1, ); waitTx();</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>97</v>
       </c>
@@ -4735,7 +4732,7 @@
         <v>case 17: Serial.println(F('BD_PRIMARE_MEDIA')); for (int i = 0; i &lt; 19; i++) data19[i] = pgm_read_word_near(dataRow17 + i); txIr(1, 19); waitTx();</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>97</v>
       </c>
@@ -4787,7 +4784,7 @@
         <v>case 18: Serial.println(F('BD_PRIMARE_BD')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow18 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>97</v>
       </c>
@@ -4821,7 +4818,7 @@
         <v>case 19: Serial.println(F('BD_PRIMARE_CD')); for (int i = 0; i &lt; ; i++) data[i] = pgm_read_word_near(dataRow19 + i); txIr(1, ); waitTx();</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>97</v>
       </c>
@@ -4855,7 +4852,7 @@
         <v>case 20: Serial.println(F('BD_PRIMARE_PRE')); for (int i = 0; i &lt; ; i++) data[i] = pgm_read_word_near(dataRow20 + i); txIr(1, ); waitTx();</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>97</v>
       </c>
@@ -4889,7 +4886,7 @@
         <v>case 21: Serial.println(F('BD_PRIMARE_PROC')); for (int i = 0; i &lt; ; i++) data[i] = pgm_read_word_near(dataRow21 + i); txIr(1, ); waitTx();</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>97</v>
       </c>
@@ -4941,7 +4938,7 @@
         <v>case 22: Serial.println(F('BD_PRIMARE_-')); for (int i = 0; i &lt; 25; i++) data25[i] = pgm_read_word_near(dataRow22 + i); txIr(1, 25); waitTx();</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>97</v>
       </c>
@@ -4993,7 +4990,7 @@
         <v>case 23: Serial.println(F('BD_PRIMARE_+')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow23 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>97</v>
       </c>
@@ -5050,7 +5047,7 @@
         <v>case 24: Serial.println(F('BD_PRIMARE_UP')); for (int i = 0; i &lt; 25; i++) data25[i] = pgm_read_word_near(dataRow24 + i); txIr(1, 25); waitTx();</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>97</v>
       </c>
@@ -5107,7 +5104,7 @@
         <v>case 25: Serial.println(F('BD_PRIMARE_LEFT')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow25 + i); txIr(1, 21); waitTx();</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>97</v>
       </c>
@@ -5164,7 +5161,7 @@
         <v>case 26: Serial.println(F('BD_PRIMARE_RIGTH')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow26 + i); txIr(1, 21); waitTx();</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>97</v>
       </c>
@@ -5221,7 +5218,7 @@
         <v>case 27: Serial.println(F('BD_PRIMARE_DOWN')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow27 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>97</v>
       </c>
@@ -5278,7 +5275,7 @@
         <v>case 28: Serial.println(F('BD_PRIMARE_SELECT')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow28 + i); txIr(1, 21); waitTx();</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>97</v>
       </c>
@@ -5335,7 +5332,7 @@
         <v>case 29: Serial.println(F('BD_PRIMARE_STOP/EJECT')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow29 + i); txIr(1, 21); waitTx();</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>97</v>
       </c>
@@ -5392,7 +5389,7 @@
         <v>case 30: Serial.println(F('BD_PRIMARE_PLAY/PAUSE')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow30 + i); txIr(1, 21); waitTx();</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>97</v>
       </c>
@@ -5449,7 +5446,7 @@
         <v>case 31: Serial.println(F('BD_PRIMARE_PREV')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow31 + i); txIr(1, 21); waitTx();</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>97</v>
       </c>
@@ -5506,7 +5503,7 @@
         <v>case 32: Serial.println(F('BD_PRIMARE_FB')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow32 + i); txIr(1, 21); waitTx();</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>97</v>
       </c>
@@ -5563,7 +5560,7 @@
         <v>case 33: Serial.println(F('BD_PRIMARE_FF')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow33 + i); txIr(1, 21); waitTx();</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>97</v>
       </c>
@@ -5620,7 +5617,7 @@
         <v>case 34: Serial.println(F('BD_PRIMARE_NEXT')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow34 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>97</v>
       </c>
@@ -5675,7 +5672,7 @@
         <v>case 35: Serial.println(F('BD_PRIMARE_SETUP')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow35 + i); txIr(1, 21); waitTx();</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>97</v>
       </c>
@@ -5730,7 +5727,7 @@
         <v>case 36: Serial.println(F('BD_PRIMARE_DISP')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow36 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>97</v>
       </c>
@@ -5785,7 +5782,7 @@
         <v>case 37: Serial.println(F('BD_PRIMARE_MENU')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow37 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>97</v>
       </c>
@@ -5840,7 +5837,7 @@
         <v>case 38: Serial.println(F('BD_PRIMARE_POP')); for (int i = 0; i &lt; 25; i++) data25[i] = pgm_read_word_near(dataRow38 + i); txIr(1, 25); waitTx();</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>97</v>
       </c>
@@ -5895,7 +5892,7 @@
         <v>case 39: Serial.println(F('BD_PRIMARE_REPEAT')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow39 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>97</v>
       </c>
@@ -5950,7 +5947,7 @@
         <v>case 40: Serial.println(F('BD_PRIMARE_ANG')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow40 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>97</v>
       </c>
@@ -6007,7 +6004,7 @@
         <v>case 41: Serial.println(F('BD_PRIMARE_HOME')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow41 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>97</v>
       </c>
@@ -6062,7 +6059,7 @@
         <v>case 42: Serial.println(F('BD_PRIMARE_AUDIO')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow42 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>97</v>
       </c>
@@ -6117,7 +6114,7 @@
         <v>case 43: Serial.println(F('BD_PRIMARE_RES')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow43 + i); txIr(1, 21); waitTx();</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>97</v>
       </c>
@@ -6172,7 +6169,7 @@
         <v>case 44: Serial.println(F('BD_PRIMARE_ZOOM')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow44 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>97</v>
       </c>
@@ -6227,7 +6224,7 @@
         <v>case 45: Serial.println(F('BD_PRIMARE_GOTO')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow45 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>97</v>
       </c>
@@ -6282,7 +6279,7 @@
         <v>case 46: Serial.println(F('BD_PRIMARE_BAL/ST')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow46 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>97</v>
       </c>
@@ -6337,7 +6334,7 @@
         <v>case 47: Serial.println(F('BD_PRIMARE_ROSSO')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow47 + i); txIr(1, 21); waitTx();</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>97</v>
       </c>
@@ -6394,7 +6391,7 @@
         <v>case 48: Serial.println(F('BD_PRIMARE_VERDE')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow48 + i); txIr(1, 21); waitTx();</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>97</v>
       </c>
@@ -6451,7 +6448,7 @@
         <v>case 49: Serial.println(F('BD_PRIMARE_BLU')); for (int i = 0; i &lt; 19; i++) data19[i] = pgm_read_word_near(dataRow49 + i); txIr(1, 19); waitTx();</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>97</v>
       </c>
@@ -7816,7 +7813,7 @@
         <v>case 75: Serial.println(F('AV_ROTEL_VOL +')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow75 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>279</v>
       </c>
@@ -8805,7 +8802,7 @@
         <v>case 94: Serial.println(F('DECODER_XORO_MENU')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow94 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>279</v>
       </c>
@@ -8860,7 +8857,7 @@
         <v>case 95: Serial.println(F('DECODER_XORO_EXIT')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow95 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>279</v>
       </c>
@@ -8915,7 +8912,7 @@
         <v>case 96: Serial.println(F('DECODER_XORO_UP')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow96 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>279</v>
       </c>
@@ -8970,7 +8967,7 @@
         <v>case 97: Serial.println(F('DECODER_XORO_LEFT')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow97 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>279</v>
       </c>
@@ -9025,7 +9022,7 @@
         <v>case 98: Serial.println(F('DECODER_XORO_RIGTH')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow98 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>279</v>
       </c>
@@ -9080,7 +9077,7 @@
         <v>case 99: Serial.println(F('DECODER_XORO_DOWN')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow99 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>279</v>
       </c>
@@ -9135,7 +9132,7 @@
         <v>case 100: Serial.println(F('DECODER_XORO_OK')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow100 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>279</v>
       </c>
@@ -9190,7 +9187,7 @@
         <v>case 101: Serial.println(F('DECODER_XORO_i')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow101 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>279</v>
       </c>
@@ -9245,7 +9242,7 @@
         <v>case 102: Serial.println(F('DECODER_XORO_INDIETRO')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow102 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>279</v>
       </c>
@@ -9300,7 +9297,7 @@
         <v>case 103: Serial.println(F('DECODER_XORO_EPG')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow103 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>279</v>
       </c>
@@ -9355,7 +9352,7 @@
         <v>case 104: Serial.println(F('DECODER_XORO_TXT')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow104 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>279</v>
       </c>
@@ -9410,7 +9407,7 @@
         <v>case 105: Serial.println(F('DECODER_XORO_VOL+')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow105 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>279</v>
       </c>
@@ -9465,7 +9462,7 @@
         <v>case 106: Serial.println(F('DECODER_XORO_VOL-')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow106 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>279</v>
       </c>
@@ -9520,7 +9517,7 @@
         <v>case 107: Serial.println(F('DECODER_XORO_PAGE+')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow107 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>279</v>
       </c>
@@ -13871,7 +13868,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/Codici.xlsx
+++ b/Codici.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIEFFE2\My Drive 3\GIT\ARDUINO\PROGETTI\ARI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CDFC4C-D802-456C-9C0D-074CE3E65550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A932B3D7-9755-41D6-803F-2D1C9B2386D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="165" windowWidth="24765" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="525" windowWidth="24990" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codici e comandi" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="898">
   <si>
     <t>NEC</t>
   </si>
@@ -2754,51 +2754,6 @@
   </si>
   <si>
     <t>10P</t>
-  </si>
-  <si>
-    <t>_8950,4450,550,550,600,550,550,550,550,550,600,550,550,550,550,550,600,550,550,1650,600,1650,550,1650,600,1650,600,1650,550,1700,550,500,600,1700,550,1650,600,550,550,550,550,1650,600,1650,550,550,600,1650,550,550,600,500,600,1650,600,1650,550,550,600,550,550,1650,600,550,550,1650,600</t>
-  </si>
-  <si>
-    <t>_8950,4450,550,550,550,550,600,550,550,550,550,600,550,550,550,550,550,600,550,1650,550,1700,550,1700,550,1650,550,1700,550,1650,600,550,550,1700,550,1650,550,600,550,1650,550,600,550,550,550,550,550,600,550,550,550,550,550,1700,550,550,550,1700,550,1700,550,1650,550,1700,550,1650,550</t>
-  </si>
-  <si>
-    <t>_8900,4500,550,550,550,600,550,550,550,550,550,600,550,550,550,550,550,600,500,1700,550,1700,550,1700,500,1700,550,1650,600,1700,500,600,550,1650,550,600,550,1650,550,1700,550,550,550,600,550,550,550,550,550,550,600,1650,550,550,600,550,550,1650,600,1650,550,1700,550,1700,500,1700,550</t>
-  </si>
-  <si>
-    <t>_9050,4350,650,500,650,450,700,400,650,450,700,450,650,450,650,500,650,450,650,1600,650,1550,700,1550,700,1500,700,1550,650,1600,650,450,650,1600,650,450,650,1600,650,450,650,1600,650,1600,650,450,650,1600,650,450,650,1600,650,450,650,1600,650,450,650,450,650,1550,700,450,650,1550,700</t>
-  </si>
-  <si>
-    <t>_8900,4500,550,550,550,600,500,600,550,550,550,600,500,600,550,550,550,550,550,1700,550,1700,550,1700,500,1700,550,1700,550,1700,500,600,550,1700,500,1700,550,1700,550,550,550,1700,550,1700,500,600,550,550,550,600,500,600,550,550,550,1700,550,550,550,600,500,1700,550,1700,550,1650,550</t>
-  </si>
-  <si>
-    <t>_9050,4350,650,500,600,500,650,450,650,500,650,450,650,450,650,500,650,450,600,1650,600,1600,650,1600,650,1550,700,1550,650,1550,700,450,650,1600,600,500,650,1600,600,1650,600,500,650,1600,600,500,650,450,650,500,600,1600,650,450,650,500,600,1600,650,450,650,1600,650,1600,650,1550,650</t>
-  </si>
-  <si>
-    <t>_8950,4450,600,550,550,550,550,550,600,500,600,550,550,550,600,500,600,550,650,1600,550,1650,600,1650,550,1700,550,1650,650,1600,550,550,600,1650,550,550,600,1650,550,550,650,1600,550,1700,550,550,550,550,600,550,550,1650,600,500,600,1650,600,500,650,500,550,1700,550,1650,600,1650,550</t>
-  </si>
-  <si>
-    <t>_8950,4450,550,550,600,500,600,550,550,550,600,500,600,550,550,550,600,550,550,1650,600,1650,550,1650,600,1650,600,1650,550,1700,550,550,550,1700,550,1650,600,1600,600,1700,550,550,550,1700,550,550,550,550,600,500,600,550,550,550,600,500,600,1650,600,500,600,1650,600,1650,550,1650,600</t>
-  </si>
-  <si>
-    <t>_9000,4400,650,500,600,450,650,500,650,450,650,500,550,550,600,500,650,450,650,1600,650,1600,600,1650,600,1600,650,1600,600,1650,550,550,600,1650,600,1600,650,1600,550,550,550,550,650,1600,650,450,650,500,600,500,550,600,500,600,600,1650,600,1600,650,500,600,1600,650,1600,600,1600,650</t>
-  </si>
-  <si>
-    <t>_9000,4400,650,500,600,500,600,500,650,450,650,500,600,500,650,450,650,500,600,1600,650,1600,600,1600,650,1600,650,1600,600,1650,600,500,600,1650,600,1600,650,450,650,1600,650,1600,600,500,650,500,600,1600,650,450,650,500,600,1650,600,500,600,500,650,1600,600,1600,650,500,600,1650,600</t>
-  </si>
-  <si>
-    <t>_9000,4400,650,500,600,500,600,500,650,450,650,500,550,550,650,450,650,500,550,1700,600,1600,650,1600,600,1650,600,1600,650,1600,600,500,650,1600,600,500,650,500,600,500,600,1600,650,1600,650,500,600,500,600,500,650,1600,600,1650,600,1600,550,600,600,500,600,1650,600,1600,550,1650,650</t>
-  </si>
-  <si>
-    <t>_8950,4450,550,600,550,550,550,600,500,600,550,550,550,600,500,550,600,550,550,1700,550,1700,500,1700,550,1700,550,1700,500,1700,550,550,550,1700,550,1700,550,550,550,600,500,600,550,550,600,500,550,550,600,550,550,550,550,1700,550,1700,550,1650,550,1700,550,1700,500,1700,550,1700,550</t>
-  </si>
-  <si>
-    <t>_9050,4350,650,450,650,500,650,450,650,450,650,500,650,450,650,450,650,500,650,1550,650,1600,650,1600,600,1600,650,1600,650,1550,700,450,650,1600,650,450,650,1600,650,450,650,450,650,500,650,450,650,450,650,500,650,1550,650,500,650,1550,650,1600,650,1550,700,1550,650,1600,650,1550,650</t>
-  </si>
-  <si>
-    <t>_9050,4400,600,500,650,450,650,450,700,450,650,450,650,450,650,500,650,450,650,1600,650,1550,650,1600,650,1600,650,1600,600,1600,650,450,700,1550,650,1600,650,450,650,1600,650,1600,600,500,600,500,650,500,600,500,650,450,650,1600,650,450,650,500,650,1550,650,1600,650,1600,650,1550,650</t>
-  </si>
-  <si>
-    <t>_9050,4350,650,500,650,450,650,450,650,500,650,450,650,450,650,500,650,450,650,1550,700,1550,650,1600,650,1550,700,1550,650,1600,650,450,650,1600,650,1600,650,450,650,450,650,500,650,1550,650,500,650,400,700,450,650,500,650,1550,650,1600,650,1550,700,400,700,1550,650,1600,650,1550,700</t>
   </si>
 </sst>
 </file>
@@ -3465,13 +3420,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8D0A749-F962-4F1B-B21E-FE4D8D038816}" name="Table1" displayName="Table1" ref="A1:R189" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowCellStyle="Accent1">
-  <autoFilter ref="A1:R189" xr:uid="{D8D0A749-F962-4F1B-B21E-FE4D8D038816}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Primare c23"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R189" xr:uid="{D8D0A749-F962-4F1B-B21E-FE4D8D038816}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6FA10E92-0C7B-4C4C-9DB7-EA4230F093AD}" name="App" dataDxfId="17"/>
     <tableColumn id="16" xr3:uid="{2810BB17-5B56-45E3-8ACD-D32FB6C47E02}" name="sel" dataDxfId="16"/>
@@ -3763,9 +3712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3774,8 +3721,7 @@
     <col min="3" max="4" width="11.5703125" style="4" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" style="5" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" style="5" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" style="4" customWidth="1"/>
@@ -6503,7 +6449,7 @@
         <v>case 50: Serial.println(F('BD_PRIMARE_GIALLO')); for (int i = 0; i &lt; 21; i++) data21[i] = pgm_read_word_near(dataRow50 + i); txIr(1, 21); waitTx();</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>251</v>
       </c>
@@ -6558,7 +6504,7 @@
         <v>case 51: Serial.println(F('AV_ROTEL_ON-OFF')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow51 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>251</v>
       </c>
@@ -6611,7 +6557,7 @@
         <v>case 52: Serial.println(F('AV_ROTEL_LINE')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow52 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>251</v>
       </c>
@@ -6664,7 +6610,7 @@
         <v>case 53: Serial.println(F('AV_ROTEL_LD')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow53 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>251</v>
       </c>
@@ -6717,7 +6663,7 @@
         <v>case 54: Serial.println(F('AV_ROTEL_VIDEO1')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow54 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>251</v>
       </c>
@@ -6770,7 +6716,7 @@
         <v>case 55: Serial.println(F('AV_ROTEL_VIDEO2')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow55 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>251</v>
       </c>
@@ -6823,7 +6769,7 @@
         <v>case 56: Serial.println(F('AV_ROTEL_TAPE')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow56 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>251</v>
       </c>
@@ -6876,7 +6822,7 @@
         <v>case 57: Serial.println(F('AV_ROTEL_BAS EQ')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow57 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>251</v>
       </c>
@@ -6926,7 +6872,7 @@
         <v>case 58: Serial.println(F('AV_ROTEL_LEVEL CHECK')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow58 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>251</v>
       </c>
@@ -6976,7 +6922,7 @@
         <v>case 59: Serial.println(F('AV_ROTEL_DELAY 20MS')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow59 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>251</v>
       </c>
@@ -7026,7 +6972,7 @@
         <v>case 60: Serial.println(F('AV_ROTEL_DELAY 30MS')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow60 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>251</v>
       </c>
@@ -7079,7 +7025,7 @@
         <v>case 61: Serial.println(F('AV_ROTEL_DOLBY PRO LOGIC')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow61 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>251</v>
       </c>
@@ -7132,7 +7078,7 @@
         <v>case 62: Serial.println(F('AV_ROTEL_NORMAL')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow62 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>251</v>
       </c>
@@ -7185,7 +7131,7 @@
         <v>case 63: Serial.println(F('AV_ROTEL_PHANTOM')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow63 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>251</v>
       </c>
@@ -7238,7 +7184,7 @@
         <v>case 64: Serial.println(F('AV_ROTEL_WIDE')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow64 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>251</v>
       </c>
@@ -7291,7 +7237,7 @@
         <v>case 65: Serial.println(F('AV_ROTEL_JAZZ')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow65 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>251</v>
       </c>
@@ -7344,7 +7290,7 @@
         <v>case 66: Serial.println(F('AV_ROTEL_CONCERT')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow66 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>251</v>
       </c>
@@ -7397,7 +7343,7 @@
         <v>case 67: Serial.println(F('AV_ROTEL_STADIUM')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow67 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>251</v>
       </c>
@@ -7450,7 +7396,7 @@
         <v>case 68: Serial.println(F('AV_ROTEL_STEREO')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow68 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>251</v>
       </c>
@@ -7500,7 +7446,7 @@
         <v>case 69: Serial.println(F('AV_ROTEL_REAR LEFT')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow69 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>251</v>
       </c>
@@ -7550,7 +7496,7 @@
         <v>case 70: Serial.println(F('AV_ROTEL_REAR RIGTH')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow70 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>251</v>
       </c>
@@ -7603,7 +7549,7 @@
         <v>case 71: Serial.println(F('AV_ROTEL_MUTE')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow71 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>251</v>
       </c>
@@ -7653,7 +7599,7 @@
         <v>case 72: Serial.println(F('AV_ROTEL_CENTER LEFT')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow72 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>251</v>
       </c>
@@ -7703,7 +7649,7 @@
         <v>case 73: Serial.println(F('AV_ROTEL_CENTER RIGTH')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow73 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>251</v>
       </c>
@@ -7758,7 +7704,7 @@
         <v>case 74: Serial.println(F('AV_ROTEL_VOL -')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow74 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>251</v>
       </c>
@@ -7813,7 +7759,7 @@
         <v>case 75: Serial.println(F('AV_ROTEL_VOL +')); for (int i = 0; i &lt; 87; i++) data87[i] = pgm_read_word_near(dataRow75 + i); txIr(1, 87); waitTx();</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>279</v>
       </c>
@@ -7868,7 +7814,7 @@
         <v>case 76: Serial.println(F('DECODER_XORO_ON-OFF')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow76 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>279</v>
       </c>
@@ -7920,7 +7866,7 @@
         <v>case 77: Serial.println(F('DECODER_XORO_MUTE')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow77 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>279</v>
       </c>
@@ -7972,7 +7918,7 @@
         <v>case 78: Serial.println(F('DECODER_XORO_GOTO')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow78 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>279</v>
       </c>
@@ -8024,7 +7970,7 @@
         <v>case 79: Serial.println(F('DECODER_XORO_RPT')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow79 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>279</v>
       </c>
@@ -8076,7 +8022,7 @@
         <v>case 80: Serial.println(F('DECODER_XORO_SUB-T')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow80 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>279</v>
       </c>
@@ -8128,7 +8074,7 @@
         <v>case 81: Serial.println(F('DECODER_XORO_AUDIO')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow81 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>279</v>
       </c>
@@ -8180,7 +8126,7 @@
         <v>case 82: Serial.println(F('DECODER_XORO_FR')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow82 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>279</v>
       </c>
@@ -8232,7 +8178,7 @@
         <v>case 83: Serial.println(F('DECODER_XORO_FF')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow83 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>279</v>
       </c>
@@ -8284,7 +8230,7 @@
         <v>case 84: Serial.println(F('DECODER_XORO_PREV')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow84 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>279</v>
       </c>
@@ -8336,7 +8282,7 @@
         <v>case 85: Serial.println(F('DECODER_XORO_NEXT')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow85 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>279</v>
       </c>
@@ -8388,7 +8334,7 @@
         <v>case 86: Serial.println(F('DECODER_XORO_PLAY')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow86 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>279</v>
       </c>
@@ -8440,7 +8386,7 @@
         <v>case 87: Serial.println(F('DECODER_XORO_PAUSE')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow87 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>279</v>
       </c>
@@ -8492,7 +8438,7 @@
         <v>case 88: Serial.println(F('DECODER_XORO_STOP/EJECT')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow88 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>279</v>
       </c>
@@ -8544,7 +8490,7 @@
         <v>case 89: Serial.println(F('DECODER_XORO_REC')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow89 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>279</v>
       </c>
@@ -8596,7 +8542,7 @@
         <v>case 90: Serial.println(F('DECODER_XORO_ROSSO')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow90 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>279</v>
       </c>
@@ -8648,7 +8594,7 @@
         <v>case 91: Serial.println(F('DECODER_XORO_VERDE')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow91 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>279</v>
       </c>
@@ -8698,7 +8644,7 @@
         <v>case 92: Serial.println(F('DECODER_XORO_GIALLO')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow92 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>279</v>
       </c>
@@ -8750,9 +8696,12 @@
         <v>case 93: Serial.println(F('DECODER_XORO_BLU')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow93 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>279</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>896</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>689</v>
@@ -8802,7 +8751,7 @@
         <v>case 94: Serial.println(F('DECODER_XORO_MENU')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow94 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>279</v>
       </c>
@@ -8857,7 +8806,7 @@
         <v>case 95: Serial.println(F('DECODER_XORO_EXIT')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow95 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>279</v>
       </c>
@@ -8912,7 +8861,7 @@
         <v>case 96: Serial.println(F('DECODER_XORO_UP')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow96 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>279</v>
       </c>
@@ -8967,7 +8916,7 @@
         <v>case 97: Serial.println(F('DECODER_XORO_LEFT')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow97 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>279</v>
       </c>
@@ -9022,7 +8971,7 @@
         <v>case 98: Serial.println(F('DECODER_XORO_RIGTH')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow98 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>279</v>
       </c>
@@ -9077,7 +9026,7 @@
         <v>case 99: Serial.println(F('DECODER_XORO_DOWN')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow99 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>279</v>
       </c>
@@ -9132,7 +9081,7 @@
         <v>case 100: Serial.println(F('DECODER_XORO_OK')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow100 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>279</v>
       </c>
@@ -9187,7 +9136,7 @@
         <v>case 101: Serial.println(F('DECODER_XORO_i')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow101 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>279</v>
       </c>
@@ -9242,7 +9191,7 @@
         <v>case 102: Serial.println(F('DECODER_XORO_INDIETRO')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow102 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>279</v>
       </c>
@@ -9297,7 +9246,7 @@
         <v>case 103: Serial.println(F('DECODER_XORO_EPG')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow103 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>279</v>
       </c>
@@ -9352,7 +9301,7 @@
         <v>case 104: Serial.println(F('DECODER_XORO_TXT')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow104 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>279</v>
       </c>
@@ -9407,7 +9356,7 @@
         <v>case 105: Serial.println(F('DECODER_XORO_VOL+')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow105 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>279</v>
       </c>
@@ -9462,7 +9411,7 @@
         <v>case 106: Serial.println(F('DECODER_XORO_VOL-')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow106 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>279</v>
       </c>
@@ -9517,7 +9466,7 @@
         <v>case 107: Serial.println(F('DECODER_XORO_PAGE+')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow107 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>279</v>
       </c>
@@ -9572,7 +9521,7 @@
         <v>case 108: Serial.println(F('DECODER_XORO_PAGE-')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow108 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>279</v>
       </c>
@@ -9624,7 +9573,7 @@
         <v>case 109: Serial.println(F('DECODER_XORO_1')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow109 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>279</v>
       </c>
@@ -9676,7 +9625,7 @@
         <v>case 110: Serial.println(F('DECODER_XORO_2')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow110 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>279</v>
       </c>
@@ -9728,7 +9677,7 @@
         <v>case 111: Serial.println(F('DECODER_XORO_3')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow111 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>279</v>
       </c>
@@ -9780,7 +9729,7 @@
         <v>case 112: Serial.println(F('DECODER_XORO_4')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow112 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>279</v>
       </c>
@@ -9832,7 +9781,7 @@
         <v>case 113: Serial.println(F('DECODER_XORO_5')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow113 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>279</v>
       </c>
@@ -9884,7 +9833,7 @@
         <v>case 114: Serial.println(F('DECODER_XORO_6')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow114 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>279</v>
       </c>
@@ -9936,7 +9885,7 @@
         <v>case 115: Serial.println(F('DECODER_XORO_7')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow115 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>279</v>
       </c>
@@ -9988,7 +9937,7 @@
         <v>case 116: Serial.println(F('DECODER_XORO_8')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow116 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>279</v>
       </c>
@@ -10040,7 +9989,7 @@
         <v>case 117: Serial.println(F('DECODER_XORO_9')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow117 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>279</v>
       </c>
@@ -10092,7 +10041,7 @@
         <v>case 118: Serial.println(F('DECODER_XORO_0')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow118 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>279</v>
       </c>
@@ -10144,7 +10093,7 @@
         <v>case 119: Serial.println(F('DECODER_XORO_TV/RADIO')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow119 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>279</v>
       </c>
@@ -10196,7 +10145,7 @@
         <v>case 120: Serial.println(F('DECODER_XORO_FAV')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow120 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="122" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>432</v>
       </c>
@@ -10253,7 +10202,7 @@
         <v>case 121: Serial.println(F('TV_PANASONIC_ON-OFF')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow121 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>432</v>
       </c>
@@ -10308,7 +10257,7 @@
         <v>case 122: Serial.println(F('TV_PANASONIC_3D')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow122 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>432</v>
       </c>
@@ -10365,7 +10314,7 @@
         <v>case 123: Serial.println(F('TV_PANASONIC_TV')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow123 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>432</v>
       </c>
@@ -10422,7 +10371,7 @@
         <v>case 124: Serial.println(F('TV_PANASONIC_AV')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow124 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>432</v>
       </c>
@@ -10477,7 +10426,7 @@
         <v>case 125: Serial.println(F('TV_PANASONIC_MENU')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow125 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>432</v>
       </c>
@@ -10532,7 +10481,7 @@
         <v>case 126: Serial.println(F('TV_PANASONIC_ASPECT')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow126 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>432</v>
       </c>
@@ -10587,7 +10536,7 @@
         <v>case 127: Serial.println(F('TV_PANASONIC_INTERNET')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow127 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>432</v>
       </c>
@@ -10642,7 +10591,7 @@
         <v>case 128: Serial.println(F('TV_PANASONIC_DIRECT TV REC')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow128 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>432</v>
       </c>
@@ -10699,7 +10648,7 @@
         <v>case 129: Serial.println(F('TV_PANASONIC_i')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow129 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>432</v>
       </c>
@@ -10756,7 +10705,7 @@
         <v>case 130: Serial.println(F('TV_PANASONIC_EXIT')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow130 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>432</v>
       </c>
@@ -10811,7 +10760,7 @@
         <v>case 131: Serial.println(F('TV_PANASONIC_VIERA LINK')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow131 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>432</v>
       </c>
@@ -10866,7 +10815,7 @@
         <v>case 132: Serial.println(F('TV_PANASONIC_VIERA TOOLS')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow132 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>432</v>
       </c>
@@ -10921,7 +10870,7 @@
         <v>case 133: Serial.println(F('TV_PANASONIC_GUIDE')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow133 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>432</v>
       </c>
@@ -10978,7 +10927,7 @@
         <v>case 134: Serial.println(F('TV_PANASONIC_UP')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow134 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>432</v>
       </c>
@@ -11035,7 +10984,7 @@
         <v>case 135: Serial.println(F('TV_PANASONIC_LEFT')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow135 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>432</v>
       </c>
@@ -11092,7 +11041,7 @@
         <v>case 136: Serial.println(F('TV_PANASONIC_RIGHT')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow136 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>432</v>
       </c>
@@ -11149,7 +11098,7 @@
         <v>case 137: Serial.println(F('TV_PANASONIC_DOWN')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow137 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>432</v>
       </c>
@@ -11206,7 +11155,7 @@
         <v>case 138: Serial.println(F('TV_PANASONIC_OK')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow138 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>432</v>
       </c>
@@ -11261,7 +11210,7 @@
         <v>case 139: Serial.println(F('TV_PANASONIC_OPTION')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow139 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>432</v>
       </c>
@@ -11316,7 +11265,7 @@
         <v>case 140: Serial.println(F('TV_PANASONIC_BACK/RETURN')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow140 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>432</v>
       </c>
@@ -11371,7 +11320,7 @@
         <v>case 141: Serial.println(F('TV_PANASONIC_ROSSO')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow141 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>432</v>
       </c>
@@ -11426,7 +11375,7 @@
         <v>case 142: Serial.println(F('TV_PANASONIC_VERDE')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow142 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>432</v>
       </c>
@@ -11481,7 +11430,7 @@
         <v>case 143: Serial.println(F('TV_PANASONIC_GIALLO')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow143 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>432</v>
       </c>
@@ -11536,7 +11485,7 @@
         <v>case 144: Serial.println(F('TV_PANASONIC_BLU')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow144 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>432</v>
       </c>
@@ -11591,7 +11540,7 @@
         <v>case 145: Serial.println(F('TV_PANASONIC_TEXT')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow145 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>432</v>
       </c>
@@ -11646,7 +11595,7 @@
         <v>case 146: Serial.println(F('TV_PANASONIC_STTL')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow146 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>432</v>
       </c>
@@ -11701,7 +11650,7 @@
         <v>case 147: Serial.println(F('TV_PANASONIC_INDEX')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow147 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>432</v>
       </c>
@@ -11756,7 +11705,7 @@
         <v>case 148: Serial.println(F('TV_PANASONIC_HOLD')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow148 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>432</v>
       </c>
@@ -11811,7 +11760,7 @@
         <v>case 149: Serial.println(F('TV_PANASONIC_1')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow149 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>432</v>
       </c>
@@ -11866,7 +11815,7 @@
         <v>case 150: Serial.println(F('TV_PANASONIC_2')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow150 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>432</v>
       </c>
@@ -11921,7 +11870,7 @@
         <v>case 151: Serial.println(F('TV_PANASONIC_3')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow151 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>432</v>
       </c>
@@ -11976,7 +11925,7 @@
         <v>case 152: Serial.println(F('TV_PANASONIC_4')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow152 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>432</v>
       </c>
@@ -12031,7 +11980,7 @@
         <v>case 153: Serial.println(F('TV_PANASONIC_5')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow153 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>432</v>
       </c>
@@ -12086,7 +12035,7 @@
         <v>case 154: Serial.println(F('TV_PANASONIC_6')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow154 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>432</v>
       </c>
@@ -12141,7 +12090,7 @@
         <v>case 155: Serial.println(F('TV_PANASONIC_7')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow155 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>432</v>
       </c>
@@ -12196,7 +12145,7 @@
         <v>case 156: Serial.println(F('TV_PANASONIC_8')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow156 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>432</v>
       </c>
@@ -12251,7 +12200,7 @@
         <v>case 157: Serial.println(F('TV_PANASONIC_9')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow157 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>432</v>
       </c>
@@ -12306,7 +12255,7 @@
         <v>case 158: Serial.println(F('TV_PANASONIC_0')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow158 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>432</v>
       </c>
@@ -12363,7 +12312,7 @@
         <v>case 159: Serial.println(F('TV_PANASONIC_MUTE')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow159 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>432</v>
       </c>
@@ -12418,7 +12367,7 @@
         <v>case 160: Serial.println(F('TV_PANASONIC_LAST VIEW')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow160 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="162" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>432</v>
       </c>
@@ -12475,7 +12424,7 @@
         <v>case 161: Serial.println(F('TV_PANASONIC_VOL+')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow161 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>432</v>
       </c>
@@ -12532,7 +12481,7 @@
         <v>case 162: Serial.println(F('TV_PANASONIC_VOL-')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow162 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="164" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>432</v>
       </c>
@@ -12589,7 +12538,7 @@
         <v>case 163: Serial.println(F('TV_PANASONIC_PROG+')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow163 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="12.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>432</v>
       </c>
@@ -12646,7 +12595,7 @@
         <v>case 164: Serial.println(F('TV_PANASONIC_PROG-')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow164 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="166" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>432</v>
       </c>
@@ -12701,7 +12650,7 @@
         <v>case 165: Serial.println(F('TV_PANASONIC_VCR ON-OFF')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow165 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>432</v>
       </c>
@@ -12756,7 +12705,7 @@
         <v>case 166: Serial.println(F('TV_PANASONIC_VCR REC')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow166 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>432</v>
       </c>
@@ -12811,7 +12760,7 @@
         <v>case 167: Serial.println(F('TV_PANASONIC_VCR DOWN')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow167 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>432</v>
       </c>
@@ -12866,7 +12815,7 @@
         <v>case 168: Serial.println(F('TV_PANASONIC_VCR UP')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow168 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="170" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>432</v>
       </c>
@@ -12921,7 +12870,7 @@
         <v>case 169: Serial.println(F('TV_PANASONIC_VCR PREV')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow169 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="171" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>432</v>
       </c>
@@ -12976,7 +12925,7 @@
         <v>case 170: Serial.println(F('TV_PANASONIC_VCR PLAY')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow170 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="172" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>432</v>
       </c>
@@ -13031,7 +12980,7 @@
         <v>case 171: Serial.println(F('TV_PANASONIC_VCR NEXT')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow171 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="173" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>432</v>
       </c>
@@ -13086,7 +13035,7 @@
         <v>case 172: Serial.println(F('TV_PANASONIC_VCR STOP')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow172 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="174" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>432</v>
       </c>
@@ -13141,7 +13090,7 @@
         <v>case 173: Serial.println(F('TV_PANASONIC_VCR PAUSE')); for (int i = 0; i &lt; 99; i++) data99[i] = pgm_read_word_near(dataRow173 + i); txIr(1, 99); waitTx();</v>
       </c>
     </row>
-    <row r="175" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>432</v>
       </c>
@@ -13175,7 +13124,7 @@
         <v>case 174: Serial.println(F('TV_PANASONIC_DVD/DCR')); for (int i = 0; i &lt; ; i++) data[i] = pgm_read_word_near(dataRow174 + i); txIr(1, ); waitTx();</v>
       </c>
     </row>
-    <row r="176" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>432</v>
       </c>
@@ -13209,7 +13158,7 @@
         <v>case 175: Serial.println(F('TV_PANASONIC_TV')); for (int i = 0; i &lt; ; i++) data[i] = pgm_read_word_near(dataRow175 + i); txIr(1, ); waitTx();</v>
       </c>
     </row>
-    <row r="177" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>623</v>
       </c>
@@ -13261,7 +13210,7 @@
         <v>case 176: Serial.println(F('SWITCH_NN_1')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow176 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="178" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>623</v>
       </c>
@@ -13313,7 +13262,7 @@
         <v>case 177: Serial.println(F('SWITCH_NN_2')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow177 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="179" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>623</v>
       </c>
@@ -13365,7 +13314,7 @@
         <v>case 178: Serial.println(F('SWITCH_NN_3')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow178 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="180" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>623</v>
       </c>
@@ -13417,7 +13366,7 @@
         <v>case 179: Serial.println(F('SWITCH_NN_UP')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow179 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="181" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>623</v>
       </c>
@@ -13469,7 +13418,7 @@
         <v>case 180: Serial.println(F('SWITCH_NN_DOWN')); for (int i = 0; i &lt; 67; i++) data67[i] = pgm_read_word_near(dataRow180 + i); txIr(1, 67); waitTx();</v>
       </c>
     </row>
-    <row r="182" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>640</v>
       </c>
@@ -13517,7 +13466,7 @@
         <v>case 181: Serial.println(F('VARIE_LITE_1')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow181 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="183" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>640</v>
       </c>
@@ -13565,7 +13514,7 @@
         <v>case 182: Serial.println(F('VARIE_LITE_2')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow182 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="184" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>640</v>
       </c>
@@ -13613,7 +13562,7 @@
         <v>case 183: Serial.println(F('VARIE_LITE_3')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow183 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="185" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>640</v>
       </c>
@@ -13661,7 +13610,7 @@
         <v>case 184: Serial.println(F('VARIE_LITE_4')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow184 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="186" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>640</v>
       </c>
@@ -13709,7 +13658,7 @@
         <v>case 185: Serial.println(F('VARIE_LITE_5')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow185 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="187" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>640</v>
       </c>
@@ -13757,7 +13706,7 @@
         <v>case 186: Serial.println(F('VARIE_LITE_MUTE')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow186 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="188" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>640</v>
       </c>
@@ -13805,7 +13754,7 @@
         <v>case 187: Serial.println(F('VARIE_LITE_VOL+')); for (int i = 0; i &lt; 23; i++) data23[i] = pgm_read_word_near(dataRow187 + i); txIr(1, 23); waitTx();</v>
       </c>
     </row>
-    <row r="189" spans="1:18" ht="12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>640</v>
       </c>
@@ -13901,288 +13850,153 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24">
-        <v>76</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>765</v>
-      </c>
       <c r="C2" s="21" t="str">
         <f>"_"&amp;B2</f>
-        <v>_8950-4450-550-550-600-550-550-550-550-550-600-550-550-550-550-550-600-550-550-1650-600-1650-550-1650-600-1650-600-1650-550-1700-550-500-600-1700-550-1650-600-550-550-550-550-1650-600-1650-550-550-600-1650-550-550-600-500-600-1650-600-1650-550-550-600-550-550-1650-600-550-550-1650-600</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>898</v>
-      </c>
-      <c r="E2" s="21" t="str">
+        <v>_</v>
+      </c>
+      <c r="E2" s="21" t="e">
         <f t="shared" ref="E2:E3" si="0">"const unsigned int dataRow"&amp;A2&amp;"[] PROGMEM = {"&amp;RIGHT(D2,LEN(D2)-1)&amp;"};"</f>
-        <v>const unsigned int dataRow76[] PROGMEM = {8950,4450,550,550,600,550,550,550,550,550,600,550,550,550,550,550,600,550,550,1650,600,1650,550,1650,600,1650,600,1650,550,1700,550,500,600,1700,550,1650,600,550,550,550,550,1650,600,1650,550,550,600,1650,550,550,600,500,600,1650,600,1650,550,550,600,550,550,1650,600,550,550,1650,600};</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="24">
-        <v>95</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>783</v>
-      </c>
       <c r="C3" s="21" t="str">
         <f t="shared" ref="C3" si="1">"_"&amp;B3</f>
-        <v>_8950-4450-550-550-550-550-600-550-550-550-550-600-550-550-550-550-550-600-550-1650-550-1700-550-1700-550-1650-550-1700-550-1650-600-550-550-1700-550-1650-550-600-550-1650-550-600-550-550-550-550-550-600-550-550-550-550-550-1700-550-550-550-1700-550-1700-550-1650-550-1700-550-1650-550</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>899</v>
-      </c>
-      <c r="E3" s="21" t="str">
+        <v>_</v>
+      </c>
+      <c r="E3" s="21" t="e">
         <f t="shared" si="0"/>
-        <v>const unsigned int dataRow95[] PROGMEM = {8950,4450,550,550,550,550,600,550,550,550,550,600,550,550,550,550,550,600,550,1650,550,1700,550,1700,550,1650,550,1700,550,1650,600,550,550,1700,550,1650,550,600,550,1650,550,600,550,550,550,550,550,600,550,550,550,550,550,1700,550,550,550,1700,550,1700,550,1650,550,1700,550,1650,550};</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="24">
-        <v>96</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>784</v>
-      </c>
       <c r="C4" s="21" t="str">
         <f t="shared" ref="C4:C16" si="2">"_"&amp;B4</f>
-        <v>_8900-4500-550-550-550-600-550-550-550-550-550-600-550-550-550-550-550-600-500-1700-550-1700-550-1700-500-1700-550-1650-600-1700-500-600-550-1650-550-600-550-1650-550-1700-550-550-550-600-550-550-550-550-550-550-600-1650-550-550-600-550-550-1650-600-1650-550-1700-550-1700-500-1700-550</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>900</v>
-      </c>
-      <c r="E4" s="21" t="str">
+        <v>_</v>
+      </c>
+      <c r="E4" s="21" t="e">
         <f t="shared" ref="E4:E16" si="3">"const unsigned int dataRow"&amp;A4&amp;"[] PROGMEM = {"&amp;RIGHT(D4,LEN(D4)-1)&amp;"};"</f>
-        <v>const unsigned int dataRow96[] PROGMEM = {8900,4500,550,550,550,600,550,550,550,550,550,600,550,550,550,550,550,600,500,1700,550,1700,550,1700,500,1700,550,1650,600,1700,500,600,550,1650,550,600,550,1650,550,1700,550,550,550,600,550,550,550,550,550,550,600,1650,550,550,600,550,550,1650,600,1650,550,1700,550,1700,500,1700,550};</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="24">
-        <v>97</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>785</v>
-      </c>
       <c r="C5" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>_9050-4350-650-500-650-450-700-400-650-450-700-450-650-450-650-500-650-450-650-1600-650-1550-700-1550-700-1500-700-1550-650-1600-650-450-650-1600-650-450-650-1600-650-450-650-1600-650-1600-650-450-650-1600-650-450-650-1600-650-450-650-1600-650-450-650-450-650-1550-700-450-650-1550-700</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>901</v>
-      </c>
-      <c r="E5" s="21" t="str">
+        <v>_</v>
+      </c>
+      <c r="E5" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow97[] PROGMEM = {9050,4350,650,500,650,450,700,400,650,450,700,450,650,450,650,500,650,450,650,1600,650,1550,700,1550,700,1500,700,1550,650,1600,650,450,650,1600,650,450,650,1600,650,450,650,1600,650,1600,650,450,650,1600,650,450,650,1600,650,450,650,1600,650,450,650,450,650,1550,700,450,650,1550,700};</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="24">
-        <v>98</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>786</v>
-      </c>
       <c r="C6" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>_8900-4500-550-550-550-600-500-600-550-550-550-600-500-600-550-550-550-550-550-1700-550-1700-550-1700-500-1700-550-1700-550-1700-500-600-550-1700-500-1700-550-1700-550-550-550-1700-550-1700-500-600-550-550-550-600-500-600-550-550-550-1700-550-550-550-600-500-1700-550-1700-550-1650-550</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>902</v>
-      </c>
-      <c r="E6" s="21" t="str">
+        <v>_</v>
+      </c>
+      <c r="E6" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow98[] PROGMEM = {8900,4500,550,550,550,600,500,600,550,550,550,600,500,600,550,550,550,550,550,1700,550,1700,550,1700,500,1700,550,1700,550,1700,500,600,550,1700,500,1700,550,1700,550,550,550,1700,550,1700,500,600,550,550,550,600,500,600,550,550,550,1700,550,550,550,600,500,1700,550,1700,550,1650,550};</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="24">
-        <v>99</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>787</v>
-      </c>
       <c r="C7" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>_9050-4350-650-500-600-500-650-450-650-500-650-450-650-450-650-500-650-450-600-1650-600-1600-650-1600-650-1550-700-1550-650-1550-700-450-650-1600-600-500-650-1600-600-1650-600-500-650-1600-600-500-650-450-650-500-600-1600-650-450-650-500-600-1600-650-450-650-1600-650-1600-650-1550-650</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>903</v>
-      </c>
-      <c r="E7" s="21" t="str">
+        <v>_</v>
+      </c>
+      <c r="E7" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow99[] PROGMEM = {9050,4350,650,500,600,500,650,450,650,500,650,450,650,450,650,500,650,450,600,1650,600,1600,650,1600,650,1550,700,1550,650,1550,700,450,650,1600,600,500,650,1600,600,1650,600,500,650,1600,600,500,650,450,650,500,600,1600,650,450,650,500,600,1600,650,450,650,1600,650,1600,650,1550,650};</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="24">
-        <v>100</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>788</v>
-      </c>
       <c r="C8" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>_8950-4450-600-550-550-550-550-550-600-500-600-550-550-550-600-500-600-550-650-1600-550-1650-600-1650-550-1700-550-1650-650-1600-550-550-600-1650-550-550-600-1650-550-550-650-1600-550-1700-550-550-550-550-600-550-550-1650-600-500-600-1650-600-500-650-500-550-1700-550-1650-600-1650-550</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>904</v>
-      </c>
-      <c r="E8" s="21" t="str">
+        <v>_</v>
+      </c>
+      <c r="E8" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow100[] PROGMEM = {8950,4450,600,550,550,550,550,550,600,500,600,550,550,550,600,500,600,550,650,1600,550,1650,600,1650,550,1700,550,1650,650,1600,550,550,600,1650,550,550,600,1650,550,550,650,1600,550,1700,550,550,550,550,600,550,550,1650,600,500,600,1650,600,500,650,500,550,1700,550,1650,600,1650,550};</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="24">
-        <v>101</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>789</v>
-      </c>
       <c r="C9" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>_8950-4450-550-550-600-500-600-550-550-550-600-500-600-550-550-550-600-550-550-1650-600-1650-550-1650-600-1650-600-1650-550-1700-550-550-550-1700-550-1650-600-1600-600-1700-550-550-550-1700-550-550-550-550-600-500-600-550-550-550-600-500-600-1650-600-500-600-1650-600-1650-550-1650-600</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>905</v>
-      </c>
-      <c r="E9" s="21" t="str">
+        <v>_</v>
+      </c>
+      <c r="E9" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow101[] PROGMEM = {8950,4450,550,550,600,500,600,550,550,550,600,500,600,550,550,550,600,550,550,1650,600,1650,550,1650,600,1650,600,1650,550,1700,550,550,550,1700,550,1650,600,1600,600,1700,550,550,550,1700,550,550,550,550,600,500,600,550,550,550,600,500,600,1650,600,500,600,1650,600,1650,550,1650,600};</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="24">
-        <v>102</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>790</v>
-      </c>
       <c r="C10" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>_9000-4400-650-500-600-450-650-500-650-450-650-500-550-550-600-500-650-450-650-1600-650-1600-600-1650-600-1600-650-1600-600-1650-550-550-600-1650-600-1600-650-1600-550-550-550-550-650-1600-650-450-650-500-600-500-550-600-500-600-600-1650-600-1600-650-500-600-1600-650-1600-600-1600-650</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>906</v>
-      </c>
-      <c r="E10" s="21" t="str">
+        <v>_</v>
+      </c>
+      <c r="E10" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow102[] PROGMEM = {9000,4400,650,500,600,450,650,500,650,450,650,500,550,550,600,500,650,450,650,1600,650,1600,600,1650,600,1600,650,1600,600,1650,550,550,600,1650,600,1600,650,1600,550,550,550,550,650,1600,650,450,650,500,600,500,550,600,500,600,600,1650,600,1600,650,500,600,1600,650,1600,600,1600,650};</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="24">
-        <v>103</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>791</v>
-      </c>
       <c r="C11" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>_9000-4400-650-500-600-500-600-500-650-450-650-500-600-500-650-450-650-500-600-1600-650-1600-600-1600-650-1600-650-1600-600-1650-600-500-600-1650-600-1600-650-450-650-1600-650-1600-600-500-650-500-600-1600-650-450-650-500-600-1650-600-500-600-500-650-1600-600-1600-650-500-600-1650-600</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>907</v>
-      </c>
-      <c r="E11" s="21" t="str">
+        <v>_</v>
+      </c>
+      <c r="E11" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow103[] PROGMEM = {9000,4400,650,500,600,500,600,500,650,450,650,500,600,500,650,450,650,500,600,1600,650,1600,600,1600,650,1600,650,1600,600,1650,600,500,600,1650,600,1600,650,450,650,1600,650,1600,600,500,650,500,600,1600,650,450,650,500,600,1650,600,500,600,500,650,1600,600,1600,650,500,600,1650,600};</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="24">
-        <v>104</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>792</v>
-      </c>
       <c r="C12" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>_9000-4400-650-500-600-500-600-500-650-450-650-500-550-550-650-450-650-500-550-1700-600-1600-650-1600-600-1650-600-1600-650-1600-600-500-650-1600-600-500-650-500-600-500-600-1600-650-1600-650-500-600-500-600-500-650-1600-600-1650-600-1600-550-600-600-500-600-1650-600-1600-550-1650-650</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>908</v>
-      </c>
-      <c r="E12" s="21" t="str">
+        <v>_</v>
+      </c>
+      <c r="E12" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow104[] PROGMEM = {9000,4400,650,500,600,500,600,500,650,450,650,500,550,550,650,450,650,500,550,1700,600,1600,650,1600,600,1650,600,1600,650,1600,600,500,650,1600,600,500,650,500,600,500,600,1600,650,1600,650,500,600,500,600,500,650,1600,600,1650,600,1600,550,600,600,500,600,1650,600,1600,550,1650,650};</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
-        <v>105</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>793</v>
-      </c>
       <c r="C13" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>_8950-4450-550-600-550-550-550-600-500-600-550-550-550-600-500-550-600-550-550-1700-550-1700-500-1700-550-1700-550-1700-500-1700-550-550-550-1700-550-1700-550-550-550-600-500-600-550-550-600-500-550-550-600-550-550-550-550-1700-550-1700-550-1650-550-1700-550-1700-500-1700-550-1700-550</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>909</v>
-      </c>
-      <c r="E13" s="21" t="str">
+        <v>_</v>
+      </c>
+      <c r="E13" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow105[] PROGMEM = {8950,4450,550,600,550,550,550,600,500,600,550,550,550,600,500,550,600,550,550,1700,550,1700,500,1700,550,1700,550,1700,500,1700,550,550,550,1700,550,1700,550,550,550,600,500,600,550,550,600,500,550,550,600,550,550,550,550,1700,550,1700,550,1650,550,1700,550,1700,500,1700,550,1700,550};</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="24">
-        <v>106</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>794</v>
-      </c>
       <c r="C14" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>_9050-4350-650-450-650-500-650-450-650-450-650-500-650-450-650-450-650-500-650-1550-650-1600-650-1600-600-1600-650-1600-650-1550-700-450-650-1600-650-450-650-1600-650-450-650-450-650-500-650-450-650-450-650-500-650-1550-650-500-650-1550-650-1600-650-1550-700-1550-650-1600-650-1550-650</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>910</v>
-      </c>
-      <c r="E14" s="21" t="str">
+        <v>_</v>
+      </c>
+      <c r="E14" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow106[] PROGMEM = {9050,4350,650,450,650,500,650,450,650,450,650,500,650,450,650,450,650,500,650,1550,650,1600,650,1600,600,1600,650,1600,650,1550,700,450,650,1600,650,450,650,1600,650,450,650,450,650,500,650,450,650,450,650,500,650,1550,650,500,650,1550,650,1600,650,1550,700,1550,650,1600,650,1550,650};</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="24">
-        <v>107</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>795</v>
-      </c>
       <c r="C15" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>_9050-4400-600-500-650-450-650-450-700-450-650-450-650-450-650-500-650-450-650-1600-650-1550-650-1600-650-1600-650-1600-600-1600-650-450-700-1550-650-1600-650-450-650-1600-650-1600-600-500-600-500-650-500-600-500-650-450-650-1600-650-450-650-500-650-1550-650-1600-650-1600-650-1550-650</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>911</v>
-      </c>
-      <c r="E15" s="21" t="str">
+        <v>_</v>
+      </c>
+      <c r="E15" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow107[] PROGMEM = {9050,4400,600,500,650,450,650,450,700,450,650,450,650,450,650,500,650,450,650,1600,650,1550,650,1600,650,1600,650,1600,600,1600,650,450,700,1550,650,1600,650,450,650,1600,650,1600,600,500,600,500,650,500,600,500,650,450,650,1600,650,450,650,500,650,1550,650,1600,650,1600,650,1550,650};</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="24">
-        <v>108</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>796</v>
-      </c>
       <c r="C16" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>_9050-4350-650-500-650-450-650-450-650-500-650-450-650-450-650-500-650-450-650-1550-700-1550-650-1600-650-1550-700-1550-650-1600-650-450-650-1600-650-1600-650-450-650-450-650-500-650-1550-650-500-650-400-700-450-650-500-650-1550-650-1600-650-1550-700-400-700-1550-650-1600-650-1550-700</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>912</v>
-      </c>
-      <c r="E16" s="21" t="str">
+        <v>_</v>
+      </c>
+      <c r="E16" s="21" t="e">
         <f t="shared" si="3"/>
-        <v>const unsigned int dataRow108[] PROGMEM = {9050,4350,650,500,650,450,650,450,650,500,650,450,650,450,650,500,650,450,650,1550,700,1550,650,1600,650,1550,700,1550,650,1600,650,450,650,1600,650,1600,650,450,650,450,650,500,650,1550,650,500,650,400,700,450,650,500,650,1550,650,1600,650,1550,700,400,700,1550,650,1600,650,1550,700};</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/Codici.xlsx
+++ b/Codici.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIEFFE2\My Drive 3\GIT\ARDUINO\PROGETTI\ARI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A932B3D7-9755-41D6-803F-2D1C9B2386D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC348CA-7322-4EFE-8689-B364D79CE82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="525" windowWidth="24990" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codici e comandi" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="904">
   <si>
     <t>NEC</t>
   </si>
@@ -2754,6 +2754,24 @@
   </si>
   <si>
     <t>10P</t>
+  </si>
+  <si>
+    <t>_8950,4450,600,500,600,550,550,550,650,500,550,550,550,550,600,550,600,500,550,1700,550,1650,600,1650,550,1700,550,1650,600,1650,550,550,600,1650,550,550,650,1600,600,500,550,1700,600,500,650,450,600,1650,550,550,650,1600,550,550,600,1650,550,550,600,1650,550,1650,600,550,550,1650,600</t>
+  </si>
+  <si>
+    <t>_9050,4400,550,550,550,550,550,550,600,550,650,450,550,550,600,550,550,550,600,1650,550,1650,600,1650,600,1650,650,1600,600,1600,600,500,600,1650,600,500,600,550,550,550,650,1600,550,550,600,500,600,1650,600,500,600,1650,650,1600,550,1700,550,550,600,1650,550,1650,600,500,600,1650,550</t>
+  </si>
+  <si>
+    <t>_8900,4500,550,550,550,600,500,600,550,550,550,550,550,600,550,550,550,550,550,1700,550,1700,550,1650,550,1700,550,1700,500,1700,550,600,500,1700,550,550,550,1700,550,1700,550,550,550,550,550,600,550,1700,500,600,550,1650,550,600,550,550,550,1700,550,1700,500,1700,550,550,550,1700,550</t>
+  </si>
+  <si>
+    <t>_8950,4500,500,600,550,550,550,550,550,600,550,550,550,550,550,600,550,550,550,1700,550,1650,550,1700,550,1700,550,1650,550,1700,550,550,550,1700,550,550,550,600,550,1650,550,550,550,600,550,550,550,1700,550,550,550,1700,550,1700,500,600,550,1700,500,1700,550,1700,550,550,550,1700,550</t>
+  </si>
+  <si>
+    <t>_8950,4450,550,550,600,550,550,600,500,550,600,550,550,600,500,600,550,550,550,1700,550,1650,550,1700,550,1650,600,1650,550,1700,550,550,550,1700,550,550,550,600,550,1650,550,600,550,550,550,550,550,600,550,550,550,1700,550,1650,550,600,500,1700,550,1700,550,1700,500,1700,550,1700,550</t>
+  </si>
+  <si>
+    <t>_8950,4450,550,600,550,550,550,550,550,600,550,550,550,550,550,600,550,550,550,1700,550,1650,550,1700,550,1650,600,1650,550,1700,550,550,550,1700,550,550,550,1700,550,550,550,600,500,600,550,550,550,1700,550,550,550,1700,550,550,550,1700,550,1650,550,1700,550,1700,550,550,550,1700,550</t>
   </si>
 </sst>
 </file>
@@ -2915,7 +2933,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3014,6 +3032,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -3420,7 +3439,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8D0A749-F962-4F1B-B21E-FE4D8D038816}" name="Table1" displayName="Table1" ref="A1:R189" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowCellStyle="Accent1">
-  <autoFilter ref="A1:R189" xr:uid="{D8D0A749-F962-4F1B-B21E-FE4D8D038816}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6FA10E92-0C7B-4C4C-9DB7-EA4230F093AD}" name="App" dataDxfId="17"/>
     <tableColumn id="16" xr3:uid="{2810BB17-5B56-45E3-8ACD-D32FB6C47E02}" name="sel" dataDxfId="16"/>
@@ -3712,7 +3730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R91" sqref="R91"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8078,6 +8098,9 @@
       <c r="A83" s="4" t="s">
         <v>279</v>
       </c>
+      <c r="B83" s="5" t="s">
+        <v>896</v>
+      </c>
       <c r="C83" s="4" t="s">
         <v>689</v>
       </c>
@@ -8130,6 +8153,9 @@
       <c r="A84" s="4" t="s">
         <v>279</v>
       </c>
+      <c r="B84" s="5" t="s">
+        <v>896</v>
+      </c>
       <c r="C84" s="4" t="s">
         <v>689</v>
       </c>
@@ -8286,6 +8312,9 @@
       <c r="A87" s="4" t="s">
         <v>279</v>
       </c>
+      <c r="B87" s="5" t="s">
+        <v>896</v>
+      </c>
       <c r="C87" s="4" t="s">
         <v>689</v>
       </c>
@@ -8338,6 +8367,9 @@
       <c r="A88" s="4" t="s">
         <v>279</v>
       </c>
+      <c r="B88" s="5" t="s">
+        <v>896</v>
+      </c>
       <c r="C88" s="4" t="s">
         <v>689</v>
       </c>
@@ -8390,6 +8422,9 @@
       <c r="A89" s="4" t="s">
         <v>279</v>
       </c>
+      <c r="B89" s="5" t="s">
+        <v>896</v>
+      </c>
       <c r="C89" s="4" t="s">
         <v>689</v>
       </c>
@@ -8493,6 +8528,9 @@
     <row r="91" spans="1:18" ht="12" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>279</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>896</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>689</v>
@@ -13817,7 +13855,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -13850,53 +13888,98 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="24">
+        <v>82</v>
+      </c>
+      <c r="B2" s="34">
+        <v>8.9504450600500606E+217</v>
+      </c>
       <c r="C2" s="21" t="str">
         <f>"_"&amp;B2</f>
-        <v>_</v>
-      </c>
-      <c r="E2" s="21" t="e">
+        <v>_8.9504450600501E+217</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>898</v>
+      </c>
+      <c r="E2" s="21" t="str">
         <f t="shared" ref="E2:E3" si="0">"const unsigned int dataRow"&amp;A2&amp;"[] PROGMEM = {"&amp;RIGHT(D2,LEN(D2)-1)&amp;"};"</f>
-        <v>#VALUE!</v>
+        <v>const unsigned int dataRow82[] PROGMEM = {8950,4450,600,500,600,550,550,550,650,500,550,550,550,550,600,550,600,500,550,1700,550,1650,600,1650,550,1700,550,1650,600,1650,550,550,600,1650,550,550,650,1600,600,500,550,1700,600,500,650,450,600,1650,550,550,650,1600,550,550,600,1650,550,550,600,1650,550,1650,600,550,550,1650,600};</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="24">
+        <v>83</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>772</v>
+      </c>
       <c r="C3" s="21" t="str">
         <f t="shared" ref="C3" si="1">"_"&amp;B3</f>
-        <v>_</v>
-      </c>
-      <c r="E3" s="21" t="e">
+        <v>_9050-4400-550-550-550-550-550-550-600-550-650-450-550-550-600-550-550-550-600-1650-550-1650-600-1650-600-1650-650-1600-600-1600-600-500-600-1650-600-500-600-550-550-550-650-1600-550-550-600-500-600-1650-600-500-600-1650-650-1600-550-1700-550-550-600-1650-550-1650-600-500-600-1650-550</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>899</v>
+      </c>
+      <c r="E3" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>const unsigned int dataRow83[] PROGMEM = {9050,4400,550,550,550,550,550,550,600,550,650,450,550,550,600,550,550,550,600,1650,550,1650,600,1650,600,1650,650,1600,600,1600,600,500,600,1650,600,500,600,550,550,550,650,1600,550,550,600,500,600,1650,600,500,600,1650,650,1600,550,1700,550,550,600,1650,550,1650,600,500,600,1650,550};</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="24">
+        <v>86</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>775</v>
+      </c>
       <c r="C4" s="21" t="str">
         <f t="shared" ref="C4:C16" si="2">"_"&amp;B4</f>
-        <v>_</v>
-      </c>
-      <c r="E4" s="21" t="e">
+        <v>_8900-4500-550-550-550-600-500-600-550-550-550-550-550-600-550-550-550-550-550-1700-550-1700-550-1650-550-1700-550-1700-500-1700-550-600-500-1700-550-550-550-1700-550-1700-550-550-550-550-550-600-550-1700-500-600-550-1650-550-600-550-550-550-1700-550-1700-500-1700-550-550-550-1700-550</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>900</v>
+      </c>
+      <c r="E4" s="21" t="str">
         <f t="shared" ref="E4:E16" si="3">"const unsigned int dataRow"&amp;A4&amp;"[] PROGMEM = {"&amp;RIGHT(D4,LEN(D4)-1)&amp;"};"</f>
-        <v>#VALUE!</v>
+        <v>const unsigned int dataRow86[] PROGMEM = {8900,4500,550,550,550,600,500,600,550,550,550,550,550,600,550,550,550,550,550,1700,550,1700,550,1650,550,1700,550,1700,500,1700,550,600,500,1700,550,550,550,1700,550,1700,550,550,550,550,550,600,550,1700,500,600,550,1650,550,600,550,550,550,1700,550,1700,500,1700,550,550,550,1700,550};</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="24">
+        <v>87</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>776</v>
+      </c>
       <c r="C5" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>_</v>
-      </c>
-      <c r="E5" s="21" t="e">
+        <v>_8950-4500-500-600-550-550-550-550-550-600-550-550-550-550-550-600-550-550-550-1700-550-1650-550-1700-550-1700-550-1650-550-1700-550-550-550-1700-550-550-550-600-550-1650-550-550-550-600-550-550-550-1700-550-550-550-1700-550-1700-500-600-550-1700-500-1700-550-1700-550-550-550-1700-550</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>901</v>
+      </c>
+      <c r="E5" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>const unsigned int dataRow87[] PROGMEM = {8950,4500,500,600,550,550,550,550,550,600,550,550,550,550,550,600,550,550,550,1700,550,1650,550,1700,550,1700,550,1650,550,1700,550,550,550,1700,550,550,550,600,550,1650,550,550,550,600,550,550,550,1700,550,550,550,1700,550,1700,500,600,550,1700,500,1700,550,1700,550,550,550,1700,550};</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="24">
+        <v>88</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>777</v>
+      </c>
       <c r="C6" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>_</v>
-      </c>
-      <c r="E6" s="21" t="e">
+        <v>_8950-4450-550-550-600-550-550-600-500-550-600-550-550-600-500-600-550-550-550-1700-550-1650-550-1700-550-1650-600-1650-550-1700-550-550-550-1700-550-550-550-600-550-1650-550-600-550-550-550-550-550-600-550-550-550-1700-550-1650-550-600-500-1700-550-1700-550-1700-500-1700-550-1700-550</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>902</v>
+      </c>
+      <c r="E6" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>const unsigned int dataRow88[] PROGMEM = {8950,4450,550,550,600,550,550,600,500,550,600,550,550,600,500,600,550,550,550,1700,550,1650,550,1700,550,1650,600,1650,550,1700,550,550,550,1700,550,550,550,600,550,1650,550,600,550,550,550,550,550,600,550,550,550,1700,550,1650,550,600,500,1700,550,1700,550,1700,500,1700,550,1700,550};</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -13910,13 +13993,22 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="24">
+        <v>90</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>779</v>
+      </c>
       <c r="C8" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>_</v>
-      </c>
-      <c r="E8" s="21" t="e">
+        <v>_8950-4450-550-600-550-550-550-550-550-600-550-550-550-550-550-600-550-550-550-1700-550-1650-550-1700-550-1650-600-1650-550-1700-550-550-550-1700-550-550-550-1700-550-550-550-600-500-600-550-550-550-1700-550-550-550-1700-550-550-550-1700-550-1650-550-1700-550-1700-550-550-550-1700-550</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>903</v>
+      </c>
+      <c r="E8" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>const unsigned int dataRow90[] PROGMEM = {8950,4450,550,600,550,550,550,550,550,600,550,550,550,550,550,600,550,550,550,1700,550,1650,550,1700,550,1650,600,1650,550,1700,550,550,550,1700,550,550,550,1700,550,550,550,600,500,600,550,550,550,1700,550,550,550,1700,550,550,550,1700,550,1650,550,1700,550,1700,550,550,550,1700,550};</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
